--- a/data/slmatchups/SLMatchups.xlsx
+++ b/data/slmatchups/SLMatchups.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/apa-rankings/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\OneDrive\Documents\apa-rankings\data\slmatchups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="576" documentId="11_F25DC773A252ABDACC1048B9E9184DC65ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD1AAEE7-81F1-40C3-A350-7808FCD479B3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D086602-DC98-450E-9CA0-A82DACDD51B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4668" yWindow="3156" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15990" yWindow="360" windowWidth="15150" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,18 +354,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137"/>
+    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
+      <selection activeCell="A488" sqref="A488"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,7 +379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
@@ -393,7 +393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -407,7 +407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -421,7 +421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -435,7 +435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -449,7 +449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -505,7 +505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -519,7 +519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -533,7 +533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -547,7 +547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -575,7 +575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
@@ -589,7 +589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -603,7 +603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -617,7 +617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -645,7 +645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -659,7 +659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -673,7 +673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -687,7 +687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -701,7 +701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -715,7 +715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -743,7 +743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -771,7 +771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -785,7 +785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -813,7 +813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5</v>
       </c>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6</v>
       </c>
@@ -855,7 +855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -869,7 +869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6</v>
       </c>
@@ -883,7 +883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
@@ -897,7 +897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -911,7 +911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -939,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -953,7 +953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -967,7 +967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4</v>
       </c>
@@ -981,7 +981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>7</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>4</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>6</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>7</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>5</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>5</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>5</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>4</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>5</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>5</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>5</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>3</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>3</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>5</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>6</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>3</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>6</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>3</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>4</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>3</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>6</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>4</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>3</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>4</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>4</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>6</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>6</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>3</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>3</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>3</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>4</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>7</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>4</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>5</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>4</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>5</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>3</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>4</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>5</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>4</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>4</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>5</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>3</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>3</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>6</v>
       </c>
@@ -2337,6 +2337,4850 @@
       </c>
       <c r="D141">
         <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>4</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>5</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>3</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>4</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+      <c r="D144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>5</v>
+      </c>
+      <c r="B145">
+        <v>3</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>6</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+      <c r="C146">
+        <v>5</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>3</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>6</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="C148">
+        <v>5</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>3</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>3</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>5</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>4</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>5</v>
+      </c>
+      <c r="B152">
+        <v>2</v>
+      </c>
+      <c r="C152">
+        <v>4</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>3</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>3</v>
+      </c>
+      <c r="D153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>4</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>7</v>
+      </c>
+      <c r="D154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>5</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>5</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>3</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>3</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>4</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>5</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>5</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>3</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>3</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>5</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>4</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>5</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="C162">
+        <v>6</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>6</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>7</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>3</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+      <c r="D164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>3</v>
+      </c>
+      <c r="B165">
+        <v>2</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>5</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>5</v>
+      </c>
+      <c r="D166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>4</v>
+      </c>
+      <c r="B167">
+        <v>3</v>
+      </c>
+      <c r="C167">
+        <v>4</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>5</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>5</v>
+      </c>
+      <c r="D168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>4</v>
+      </c>
+      <c r="B169">
+        <v>3</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>3</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>3</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>6</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+      <c r="D171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>4</v>
+      </c>
+      <c r="B172">
+        <v>2</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>7</v>
+      </c>
+      <c r="B173">
+        <v>3</v>
+      </c>
+      <c r="C173">
+        <v>6</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>3</v>
+      </c>
+      <c r="B174">
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>4</v>
+      </c>
+      <c r="B175">
+        <v>3</v>
+      </c>
+      <c r="C175">
+        <v>5</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>3</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+      <c r="D176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>6</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>7</v>
+      </c>
+      <c r="D177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>3</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>5</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>3</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+      <c r="C179">
+        <v>4</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>2</v>
+      </c>
+      <c r="B180">
+        <v>3</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>3</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+      <c r="D181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>5</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>4</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>6</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>6</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>3</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="C184">
+        <v>7</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>4</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>5</v>
+      </c>
+      <c r="D185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>3</v>
+      </c>
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>6</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>5</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>3</v>
+      </c>
+      <c r="B188">
+        <v>2</v>
+      </c>
+      <c r="C188">
+        <v>6</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>2</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <v>3</v>
+      </c>
+      <c r="D189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>5</v>
+      </c>
+      <c r="B190">
+        <v>2</v>
+      </c>
+      <c r="C190">
+        <v>6</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>4</v>
+      </c>
+      <c r="B191">
+        <v>3</v>
+      </c>
+      <c r="C191">
+        <v>4</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>3</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+      <c r="D192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>5</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <v>4</v>
+      </c>
+      <c r="D193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>3</v>
+      </c>
+      <c r="B194">
+        <v>3</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>6</v>
+      </c>
+      <c r="B195">
+        <v>3</v>
+      </c>
+      <c r="C195">
+        <v>5</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>4</v>
+      </c>
+      <c r="B196">
+        <v>2</v>
+      </c>
+      <c r="C196">
+        <v>4</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>3</v>
+      </c>
+      <c r="B197">
+        <v>3</v>
+      </c>
+      <c r="C197">
+        <v>2</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>3</v>
+      </c>
+      <c r="B198">
+        <v>3</v>
+      </c>
+      <c r="C198">
+        <v>3</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>6</v>
+      </c>
+      <c r="B199">
+        <v>2</v>
+      </c>
+      <c r="C199">
+        <v>6</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>5</v>
+      </c>
+      <c r="B200">
+        <v>2</v>
+      </c>
+      <c r="C200">
+        <v>5</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>7</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201">
+        <v>6</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>5</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>5</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>5</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>6</v>
+      </c>
+      <c r="D203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>4</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>3</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>4</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205">
+        <v>3</v>
+      </c>
+      <c r="D205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>5</v>
+      </c>
+      <c r="B206">
+        <v>2</v>
+      </c>
+      <c r="C206">
+        <v>5</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>3</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>4</v>
+      </c>
+      <c r="D207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>5</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>7</v>
+      </c>
+      <c r="D208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>4</v>
+      </c>
+      <c r="B209">
+        <v>2</v>
+      </c>
+      <c r="C209">
+        <v>3</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>5</v>
+      </c>
+      <c r="B210">
+        <v>2</v>
+      </c>
+      <c r="C210">
+        <v>4</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>4</v>
+      </c>
+      <c r="B211">
+        <v>2</v>
+      </c>
+      <c r="C211">
+        <v>4</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>6</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>6</v>
+      </c>
+      <c r="D212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>3</v>
+      </c>
+      <c r="B213">
+        <v>3</v>
+      </c>
+      <c r="C213">
+        <v>3</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>5</v>
+      </c>
+      <c r="B214">
+        <v>2</v>
+      </c>
+      <c r="C214">
+        <v>4</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>3</v>
+      </c>
+      <c r="B215">
+        <v>3</v>
+      </c>
+      <c r="C215">
+        <v>3</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>5</v>
+      </c>
+      <c r="B216">
+        <v>2</v>
+      </c>
+      <c r="C216">
+        <v>6</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>6</v>
+      </c>
+      <c r="B217">
+        <v>3</v>
+      </c>
+      <c r="C217">
+        <v>5</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>3</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>4</v>
+      </c>
+      <c r="D218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>4</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>3</v>
+      </c>
+      <c r="D219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>2</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <v>3</v>
+      </c>
+      <c r="D220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>5</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <v>5</v>
+      </c>
+      <c r="D221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>3</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>4</v>
+      </c>
+      <c r="D222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>2</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223">
+        <v>3</v>
+      </c>
+      <c r="D223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>6</v>
+      </c>
+      <c r="B224">
+        <v>2</v>
+      </c>
+      <c r="C224">
+        <v>7</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>6</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>4</v>
+      </c>
+      <c r="D225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>6</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>6</v>
+      </c>
+      <c r="D226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>3</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>3</v>
+      </c>
+      <c r="D227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>4</v>
+      </c>
+      <c r="B228">
+        <v>2</v>
+      </c>
+      <c r="C228">
+        <v>3</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>3</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>3</v>
+      </c>
+      <c r="D229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>5</v>
+      </c>
+      <c r="B230">
+        <v>2</v>
+      </c>
+      <c r="C230">
+        <v>6</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>5</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>3</v>
+      </c>
+      <c r="D231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>4</v>
+      </c>
+      <c r="B232">
+        <v>3</v>
+      </c>
+      <c r="C232">
+        <v>5</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>6</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+      <c r="C233">
+        <v>5</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>5</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+      <c r="C234">
+        <v>5</v>
+      </c>
+      <c r="D234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>3</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+      <c r="C235">
+        <v>3</v>
+      </c>
+      <c r="D235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>4</v>
+      </c>
+      <c r="B236">
+        <v>2</v>
+      </c>
+      <c r="C236">
+        <v>2</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>5</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>4</v>
+      </c>
+      <c r="D237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>7</v>
+      </c>
+      <c r="B238">
+        <v>2</v>
+      </c>
+      <c r="C238">
+        <v>7</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>4</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>5</v>
+      </c>
+      <c r="D239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>6</v>
+      </c>
+      <c r="B240">
+        <v>2</v>
+      </c>
+      <c r="C240">
+        <v>5</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>4</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>4</v>
+      </c>
+      <c r="D241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>3</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>3</v>
+      </c>
+      <c r="D242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>4</v>
+      </c>
+      <c r="B243">
+        <v>2</v>
+      </c>
+      <c r="C243">
+        <v>5</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>3</v>
+      </c>
+      <c r="B244">
+        <v>2</v>
+      </c>
+      <c r="C244">
+        <v>6</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>3</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>5</v>
+      </c>
+      <c r="D245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>6</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246">
+        <v>6</v>
+      </c>
+      <c r="D246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>3</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+      <c r="C247">
+        <v>5</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>2</v>
+      </c>
+      <c r="B248">
+        <v>2</v>
+      </c>
+      <c r="C248">
+        <v>3</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>3</v>
+      </c>
+      <c r="B249">
+        <v>3</v>
+      </c>
+      <c r="C249">
+        <v>4</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>4</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250">
+        <v>5</v>
+      </c>
+      <c r="D250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>3</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>4</v>
+      </c>
+      <c r="D251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>4</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+      <c r="C252">
+        <v>5</v>
+      </c>
+      <c r="D252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>5</v>
+      </c>
+      <c r="B253">
+        <v>2</v>
+      </c>
+      <c r="C253">
+        <v>5</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>7</v>
+      </c>
+      <c r="B254">
+        <v>3</v>
+      </c>
+      <c r="C254">
+        <v>4</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>4</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>4</v>
+      </c>
+      <c r="D255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>5</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>5</v>
+      </c>
+      <c r="D256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>2</v>
+      </c>
+      <c r="B257">
+        <v>2</v>
+      </c>
+      <c r="C257">
+        <v>3</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>6</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>5</v>
+      </c>
+      <c r="D258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>6</v>
+      </c>
+      <c r="B259">
+        <v>2</v>
+      </c>
+      <c r="C259">
+        <v>4</v>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>6</v>
+      </c>
+      <c r="B260">
+        <v>2</v>
+      </c>
+      <c r="C260">
+        <v>6</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>3</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261">
+        <v>4</v>
+      </c>
+      <c r="D261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>2</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262">
+        <v>3</v>
+      </c>
+      <c r="D262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>3</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>3</v>
+      </c>
+      <c r="D263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>3</v>
+      </c>
+      <c r="B264">
+        <v>2</v>
+      </c>
+      <c r="C264">
+        <v>4</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>5</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>5</v>
+      </c>
+      <c r="D265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>4</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>5</v>
+      </c>
+      <c r="D266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>3</v>
+      </c>
+      <c r="B267">
+        <v>2</v>
+      </c>
+      <c r="C267">
+        <v>3</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>5</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>5</v>
+      </c>
+      <c r="D268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>3</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+      <c r="C269">
+        <v>3</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>5</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>7</v>
+      </c>
+      <c r="D270">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>3</v>
+      </c>
+      <c r="B271">
+        <v>2</v>
+      </c>
+      <c r="C271">
+        <v>3</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>6</v>
+      </c>
+      <c r="B272">
+        <v>2</v>
+      </c>
+      <c r="C272">
+        <v>5</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>4</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+      <c r="C273">
+        <v>6</v>
+      </c>
+      <c r="D273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>3</v>
+      </c>
+      <c r="B274">
+        <v>2</v>
+      </c>
+      <c r="C274">
+        <v>3</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>6</v>
+      </c>
+      <c r="B275">
+        <v>2</v>
+      </c>
+      <c r="C275">
+        <v>7</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>5</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>5</v>
+      </c>
+      <c r="D276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>4</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+      <c r="C277">
+        <v>4</v>
+      </c>
+      <c r="D277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>4</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278">
+        <v>4</v>
+      </c>
+      <c r="D278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>4</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+      <c r="C279">
+        <v>3</v>
+      </c>
+      <c r="D279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>4</v>
+      </c>
+      <c r="B280">
+        <v>3</v>
+      </c>
+      <c r="C280">
+        <v>3</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>5</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>3</v>
+      </c>
+      <c r="D281">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>5</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>6</v>
+      </c>
+      <c r="D282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>5</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>6</v>
+      </c>
+      <c r="D283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>7</v>
+      </c>
+      <c r="B284">
+        <v>3</v>
+      </c>
+      <c r="C284">
+        <v>6</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>4</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+      <c r="C285">
+        <v>4</v>
+      </c>
+      <c r="D285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>4</v>
+      </c>
+      <c r="B286">
+        <v>2</v>
+      </c>
+      <c r="C286">
+        <v>3</v>
+      </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>5</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="C287">
+        <v>6</v>
+      </c>
+      <c r="D287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>3</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+      <c r="C288">
+        <v>3</v>
+      </c>
+      <c r="D288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>4</v>
+      </c>
+      <c r="B289">
+        <v>2</v>
+      </c>
+      <c r="C289">
+        <v>5</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>5</v>
+      </c>
+      <c r="B290">
+        <v>2</v>
+      </c>
+      <c r="C290">
+        <v>6</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>4</v>
+      </c>
+      <c r="B291">
+        <v>3</v>
+      </c>
+      <c r="C291">
+        <v>4</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>5</v>
+      </c>
+      <c r="B292">
+        <v>2</v>
+      </c>
+      <c r="C292">
+        <v>5</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>5</v>
+      </c>
+      <c r="B293">
+        <v>3</v>
+      </c>
+      <c r="C293">
+        <v>5</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>4</v>
+      </c>
+      <c r="B294">
+        <v>2</v>
+      </c>
+      <c r="C294">
+        <v>5</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>6</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="C295">
+        <v>5</v>
+      </c>
+      <c r="D295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>4</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="C296">
+        <v>4</v>
+      </c>
+      <c r="D296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>3</v>
+      </c>
+      <c r="B297">
+        <v>3</v>
+      </c>
+      <c r="C297">
+        <v>4</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>4</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <v>5</v>
+      </c>
+      <c r="D298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>3</v>
+      </c>
+      <c r="B299">
+        <v>2</v>
+      </c>
+      <c r="C299">
+        <v>4</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>6</v>
+      </c>
+      <c r="B300">
+        <v>2</v>
+      </c>
+      <c r="C300">
+        <v>5</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>6</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
+      <c r="C301">
+        <v>5</v>
+      </c>
+      <c r="D301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>3</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+      <c r="C302">
+        <v>4</v>
+      </c>
+      <c r="D302">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>5</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+      <c r="C303">
+        <v>4</v>
+      </c>
+      <c r="D303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>2</v>
+      </c>
+      <c r="B304">
+        <v>2</v>
+      </c>
+      <c r="C304">
+        <v>4</v>
+      </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>3</v>
+      </c>
+      <c r="B305">
+        <v>3</v>
+      </c>
+      <c r="C305">
+        <v>3</v>
+      </c>
+      <c r="D305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>3</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+      <c r="C306">
+        <v>5</v>
+      </c>
+      <c r="D306">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>6</v>
+      </c>
+      <c r="B307">
+        <v>2</v>
+      </c>
+      <c r="C307">
+        <v>7</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>3</v>
+      </c>
+      <c r="B308">
+        <v>2</v>
+      </c>
+      <c r="C308">
+        <v>3</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>5</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+      <c r="C309">
+        <v>6</v>
+      </c>
+      <c r="D309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>4</v>
+      </c>
+      <c r="B310">
+        <v>3</v>
+      </c>
+      <c r="C310">
+        <v>5</v>
+      </c>
+      <c r="D310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>5</v>
+      </c>
+      <c r="B311">
+        <v>2</v>
+      </c>
+      <c r="C311">
+        <v>5</v>
+      </c>
+      <c r="D311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>3</v>
+      </c>
+      <c r="B312">
+        <v>3</v>
+      </c>
+      <c r="C312">
+        <v>3</v>
+      </c>
+      <c r="D312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>5</v>
+      </c>
+      <c r="B313">
+        <v>2</v>
+      </c>
+      <c r="C313">
+        <v>5</v>
+      </c>
+      <c r="D313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>2</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314">
+        <v>2</v>
+      </c>
+      <c r="D314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>4</v>
+      </c>
+      <c r="B315">
+        <v>2</v>
+      </c>
+      <c r="C315">
+        <v>4</v>
+      </c>
+      <c r="D315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>4</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+      <c r="C316">
+        <v>3</v>
+      </c>
+      <c r="D316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>6</v>
+      </c>
+      <c r="B317">
+        <v>2</v>
+      </c>
+      <c r="C317">
+        <v>6</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>3</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+      <c r="C318">
+        <v>4</v>
+      </c>
+      <c r="D318">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>5</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+      <c r="C319">
+        <v>6</v>
+      </c>
+      <c r="D319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>5</v>
+      </c>
+      <c r="B320">
+        <v>0</v>
+      </c>
+      <c r="C320">
+        <v>5</v>
+      </c>
+      <c r="D320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>6</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+      <c r="C321">
+        <v>4</v>
+      </c>
+      <c r="D321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>4</v>
+      </c>
+      <c r="B322">
+        <v>0</v>
+      </c>
+      <c r="C322">
+        <v>5</v>
+      </c>
+      <c r="D322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>3</v>
+      </c>
+      <c r="B323">
+        <v>2</v>
+      </c>
+      <c r="C323">
+        <v>4</v>
+      </c>
+      <c r="D323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>5</v>
+      </c>
+      <c r="B324">
+        <v>2</v>
+      </c>
+      <c r="C324">
+        <v>4</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>3</v>
+      </c>
+      <c r="B325">
+        <v>2</v>
+      </c>
+      <c r="C325">
+        <v>3</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>7</v>
+      </c>
+      <c r="B326">
+        <v>2</v>
+      </c>
+      <c r="C326">
+        <v>7</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>4</v>
+      </c>
+      <c r="B327">
+        <v>2</v>
+      </c>
+      <c r="C327">
+        <v>4</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>5</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+      <c r="C328">
+        <v>5</v>
+      </c>
+      <c r="D328">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>2</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+      <c r="C329">
+        <v>3</v>
+      </c>
+      <c r="D329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>5</v>
+      </c>
+      <c r="B330">
+        <v>2</v>
+      </c>
+      <c r="C330">
+        <v>6</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>5</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+      <c r="C331">
+        <v>5</v>
+      </c>
+      <c r="D331">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>3</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>3</v>
+      </c>
+      <c r="D332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>7</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+      <c r="C333">
+        <v>7</v>
+      </c>
+      <c r="D333">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>6</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+      <c r="C334">
+        <v>6</v>
+      </c>
+      <c r="D334">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>3</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>2</v>
+      </c>
+      <c r="D335">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>4</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+      <c r="C336">
+        <v>5</v>
+      </c>
+      <c r="D336">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>2</v>
+      </c>
+      <c r="B337">
+        <v>2</v>
+      </c>
+      <c r="C337">
+        <v>4</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>3</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+      <c r="C338">
+        <v>3</v>
+      </c>
+      <c r="D338">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>4</v>
+      </c>
+      <c r="B339">
+        <v>2</v>
+      </c>
+      <c r="C339">
+        <v>6</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>6</v>
+      </c>
+      <c r="B340">
+        <v>3</v>
+      </c>
+      <c r="C340">
+        <v>5</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>6</v>
+      </c>
+      <c r="B341">
+        <v>2</v>
+      </c>
+      <c r="C341">
+        <v>5</v>
+      </c>
+      <c r="D341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>5</v>
+      </c>
+      <c r="B342">
+        <v>2</v>
+      </c>
+      <c r="C342">
+        <v>4</v>
+      </c>
+      <c r="D342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>4</v>
+      </c>
+      <c r="B343">
+        <v>2</v>
+      </c>
+      <c r="C343">
+        <v>4</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>5</v>
+      </c>
+      <c r="B344">
+        <v>2</v>
+      </c>
+      <c r="C344">
+        <v>5</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>4</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+      <c r="C345">
+        <v>4</v>
+      </c>
+      <c r="D345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>5</v>
+      </c>
+      <c r="B346">
+        <v>3</v>
+      </c>
+      <c r="C346">
+        <v>5</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>4</v>
+      </c>
+      <c r="B347">
+        <v>2</v>
+      </c>
+      <c r="C347">
+        <v>4</v>
+      </c>
+      <c r="D347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>5</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>5</v>
+      </c>
+      <c r="D348">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>6</v>
+      </c>
+      <c r="B349">
+        <v>3</v>
+      </c>
+      <c r="C349">
+        <v>4</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>5</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+      <c r="C350">
+        <v>7</v>
+      </c>
+      <c r="D350">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>3</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+      <c r="C351">
+        <v>3</v>
+      </c>
+      <c r="D351">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>3</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+      <c r="C352">
+        <v>3</v>
+      </c>
+      <c r="D352">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>5</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+      <c r="C353">
+        <v>4</v>
+      </c>
+      <c r="D353">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>2</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="C354">
+        <v>3</v>
+      </c>
+      <c r="D354">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>7</v>
+      </c>
+      <c r="B355">
+        <v>2</v>
+      </c>
+      <c r="C355">
+        <v>7</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>3</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+      <c r="C356">
+        <v>6</v>
+      </c>
+      <c r="D356">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>3</v>
+      </c>
+      <c r="B357">
+        <v>2</v>
+      </c>
+      <c r="C357">
+        <v>2</v>
+      </c>
+      <c r="D357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>7</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+      <c r="C358">
+        <v>6</v>
+      </c>
+      <c r="D358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>4</v>
+      </c>
+      <c r="B359">
+        <v>3</v>
+      </c>
+      <c r="C359">
+        <v>4</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>5</v>
+      </c>
+      <c r="B360">
+        <v>2</v>
+      </c>
+      <c r="C360">
+        <v>6</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>4</v>
+      </c>
+      <c r="B361">
+        <v>1</v>
+      </c>
+      <c r="C361">
+        <v>3</v>
+      </c>
+      <c r="D361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>3</v>
+      </c>
+      <c r="B362">
+        <v>3</v>
+      </c>
+      <c r="C362">
+        <v>4</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>6</v>
+      </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
+      <c r="C363">
+        <v>6</v>
+      </c>
+      <c r="D363">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>7</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+      <c r="C364">
+        <v>6</v>
+      </c>
+      <c r="D364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>4</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <v>3</v>
+      </c>
+      <c r="D365">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>3</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+      <c r="C366">
+        <v>3</v>
+      </c>
+      <c r="D366">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>4</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>4</v>
+      </c>
+      <c r="D367">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>5</v>
+      </c>
+      <c r="B368">
+        <v>2</v>
+      </c>
+      <c r="C368">
+        <v>5</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>2</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+      <c r="C369">
+        <v>3</v>
+      </c>
+      <c r="D369">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>4</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+      <c r="C370">
+        <v>5</v>
+      </c>
+      <c r="D370">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>5</v>
+      </c>
+      <c r="B371">
+        <v>2</v>
+      </c>
+      <c r="C371">
+        <v>6</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>3</v>
+      </c>
+      <c r="B372">
+        <v>2</v>
+      </c>
+      <c r="C372">
+        <v>3</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>6</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <v>5</v>
+      </c>
+      <c r="D373">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>6</v>
+      </c>
+      <c r="B374">
+        <v>2</v>
+      </c>
+      <c r="C374">
+        <v>7</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>4</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+      <c r="C375">
+        <v>4</v>
+      </c>
+      <c r="D375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>4</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+      <c r="C376">
+        <v>4</v>
+      </c>
+      <c r="D376">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>4</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>4</v>
+      </c>
+      <c r="D377">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>5</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+      <c r="C378">
+        <v>5</v>
+      </c>
+      <c r="D378">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>6</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <v>6</v>
+      </c>
+      <c r="D379">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>5</v>
+      </c>
+      <c r="B380">
+        <v>2</v>
+      </c>
+      <c r="C380">
+        <v>5</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>5</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <v>6</v>
+      </c>
+      <c r="D381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>4</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+      <c r="C382">
+        <v>3</v>
+      </c>
+      <c r="D382">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>3</v>
+      </c>
+      <c r="B383">
+        <v>3</v>
+      </c>
+      <c r="C383">
+        <v>2</v>
+      </c>
+      <c r="D383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>4</v>
+      </c>
+      <c r="B384">
+        <v>2</v>
+      </c>
+      <c r="C384">
+        <v>2</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>6</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>6</v>
+      </c>
+      <c r="D385">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>5</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386">
+        <v>7</v>
+      </c>
+      <c r="D386">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>4</v>
+      </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
+      <c r="C387">
+        <v>3</v>
+      </c>
+      <c r="D387">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>5</v>
+      </c>
+      <c r="B388">
+        <v>0</v>
+      </c>
+      <c r="C388">
+        <v>4</v>
+      </c>
+      <c r="D388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>2</v>
+      </c>
+      <c r="B389">
+        <v>0</v>
+      </c>
+      <c r="C389">
+        <v>5</v>
+      </c>
+      <c r="D389">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>4</v>
+      </c>
+      <c r="B390">
+        <v>3</v>
+      </c>
+      <c r="C390">
+        <v>3</v>
+      </c>
+      <c r="D390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>5</v>
+      </c>
+      <c r="B391">
+        <v>0</v>
+      </c>
+      <c r="C391">
+        <v>4</v>
+      </c>
+      <c r="D391">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>4</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+      <c r="C392">
+        <v>3</v>
+      </c>
+      <c r="D392">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>5</v>
+      </c>
+      <c r="B393">
+        <v>0</v>
+      </c>
+      <c r="C393">
+        <v>6</v>
+      </c>
+      <c r="D393">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>5</v>
+      </c>
+      <c r="B394">
+        <v>2</v>
+      </c>
+      <c r="C394">
+        <v>4</v>
+      </c>
+      <c r="D394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>4</v>
+      </c>
+      <c r="B395">
+        <v>0</v>
+      </c>
+      <c r="C395">
+        <v>6</v>
+      </c>
+      <c r="D395">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>6</v>
+      </c>
+      <c r="B396">
+        <v>0</v>
+      </c>
+      <c r="C396">
+        <v>2</v>
+      </c>
+      <c r="D396">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>5</v>
+      </c>
+      <c r="B397">
+        <v>2</v>
+      </c>
+      <c r="C397">
+        <v>6</v>
+      </c>
+      <c r="D397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>5</v>
+      </c>
+      <c r="B398">
+        <v>2</v>
+      </c>
+      <c r="C398">
+        <v>6</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>3</v>
+      </c>
+      <c r="B399">
+        <v>1</v>
+      </c>
+      <c r="C399">
+        <v>5</v>
+      </c>
+      <c r="D399">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>3</v>
+      </c>
+      <c r="B400">
+        <v>2</v>
+      </c>
+      <c r="C400">
+        <v>3</v>
+      </c>
+      <c r="D400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>5</v>
+      </c>
+      <c r="B401">
+        <v>0</v>
+      </c>
+      <c r="C401">
+        <v>6</v>
+      </c>
+      <c r="D401">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>5</v>
+      </c>
+      <c r="B402">
+        <v>2</v>
+      </c>
+      <c r="C402">
+        <v>4</v>
+      </c>
+      <c r="D402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>4</v>
+      </c>
+      <c r="B403">
+        <v>0</v>
+      </c>
+      <c r="C403">
+        <v>3</v>
+      </c>
+      <c r="D403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>3</v>
+      </c>
+      <c r="B404">
+        <v>1</v>
+      </c>
+      <c r="C404">
+        <v>4</v>
+      </c>
+      <c r="D404">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>5</v>
+      </c>
+      <c r="B405">
+        <v>2</v>
+      </c>
+      <c r="C405">
+        <v>5</v>
+      </c>
+      <c r="D405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>4</v>
+      </c>
+      <c r="B406">
+        <v>2</v>
+      </c>
+      <c r="C406">
+        <v>5</v>
+      </c>
+      <c r="D406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>4</v>
+      </c>
+      <c r="B407">
+        <v>0</v>
+      </c>
+      <c r="C407">
+        <v>5</v>
+      </c>
+      <c r="D407">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>5</v>
+      </c>
+      <c r="B408">
+        <v>3</v>
+      </c>
+      <c r="C408">
+        <v>6</v>
+      </c>
+      <c r="D408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>3</v>
+      </c>
+      <c r="B409">
+        <v>2</v>
+      </c>
+      <c r="C409">
+        <v>3</v>
+      </c>
+      <c r="D409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>7</v>
+      </c>
+      <c r="B410">
+        <v>3</v>
+      </c>
+      <c r="C410">
+        <v>3</v>
+      </c>
+      <c r="D410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>4</v>
+      </c>
+      <c r="B411">
+        <v>2</v>
+      </c>
+      <c r="C411">
+        <v>5</v>
+      </c>
+      <c r="D411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>3</v>
+      </c>
+      <c r="B412">
+        <v>2</v>
+      </c>
+      <c r="C412">
+        <v>3</v>
+      </c>
+      <c r="D412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>5</v>
+      </c>
+      <c r="B413">
+        <v>2</v>
+      </c>
+      <c r="C413">
+        <v>4</v>
+      </c>
+      <c r="D413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>3</v>
+      </c>
+      <c r="B414">
+        <v>2</v>
+      </c>
+      <c r="C414">
+        <v>3</v>
+      </c>
+      <c r="D414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>4</v>
+      </c>
+      <c r="B415">
+        <v>2</v>
+      </c>
+      <c r="C415">
+        <v>3</v>
+      </c>
+      <c r="D415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>3</v>
+      </c>
+      <c r="B416">
+        <v>2</v>
+      </c>
+      <c r="C416">
+        <v>4</v>
+      </c>
+      <c r="D416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>5</v>
+      </c>
+      <c r="B417">
+        <v>2</v>
+      </c>
+      <c r="C417">
+        <v>5</v>
+      </c>
+      <c r="D417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>3</v>
+      </c>
+      <c r="B418">
+        <v>2</v>
+      </c>
+      <c r="C418">
+        <v>2</v>
+      </c>
+      <c r="D418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>6</v>
+      </c>
+      <c r="B419">
+        <v>2</v>
+      </c>
+      <c r="C419">
+        <v>5</v>
+      </c>
+      <c r="D419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>6</v>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+      <c r="C420">
+        <v>4</v>
+      </c>
+      <c r="D420">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>4</v>
+      </c>
+      <c r="B421">
+        <v>2</v>
+      </c>
+      <c r="C421">
+        <v>4</v>
+      </c>
+      <c r="D421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>6</v>
+      </c>
+      <c r="B422">
+        <v>0</v>
+      </c>
+      <c r="C422">
+        <v>7</v>
+      </c>
+      <c r="D422">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>3</v>
+      </c>
+      <c r="B423">
+        <v>2</v>
+      </c>
+      <c r="C423">
+        <v>3</v>
+      </c>
+      <c r="D423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>4</v>
+      </c>
+      <c r="B424">
+        <v>0</v>
+      </c>
+      <c r="C424">
+        <v>4</v>
+      </c>
+      <c r="D424">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>6</v>
+      </c>
+      <c r="B425">
+        <v>0</v>
+      </c>
+      <c r="C425">
+        <v>5</v>
+      </c>
+      <c r="D425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>4</v>
+      </c>
+      <c r="B426">
+        <v>0</v>
+      </c>
+      <c r="C426">
+        <v>5</v>
+      </c>
+      <c r="D426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>3</v>
+      </c>
+      <c r="B427">
+        <v>0</v>
+      </c>
+      <c r="C427">
+        <v>4</v>
+      </c>
+      <c r="D427">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>5</v>
+      </c>
+      <c r="B428">
+        <v>0</v>
+      </c>
+      <c r="C428">
+        <v>4</v>
+      </c>
+      <c r="D428">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>5</v>
+      </c>
+      <c r="B429">
+        <v>3</v>
+      </c>
+      <c r="C429">
+        <v>5</v>
+      </c>
+      <c r="D429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>6</v>
+      </c>
+      <c r="B430">
+        <v>3</v>
+      </c>
+      <c r="C430">
+        <v>4</v>
+      </c>
+      <c r="D430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>4</v>
+      </c>
+      <c r="B431">
+        <v>0</v>
+      </c>
+      <c r="C431">
+        <v>3</v>
+      </c>
+      <c r="D431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>3</v>
+      </c>
+      <c r="B432">
+        <v>2</v>
+      </c>
+      <c r="C432">
+        <v>5</v>
+      </c>
+      <c r="D432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>5</v>
+      </c>
+      <c r="B433">
+        <v>0</v>
+      </c>
+      <c r="C433">
+        <v>6</v>
+      </c>
+      <c r="D433">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>5</v>
+      </c>
+      <c r="B434">
+        <v>2</v>
+      </c>
+      <c r="C434">
+        <v>6</v>
+      </c>
+      <c r="D434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>6</v>
+      </c>
+      <c r="B435">
+        <v>0</v>
+      </c>
+      <c r="C435">
+        <v>3</v>
+      </c>
+      <c r="D435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>5</v>
+      </c>
+      <c r="B436">
+        <v>0</v>
+      </c>
+      <c r="C436">
+        <v>4</v>
+      </c>
+      <c r="D436">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>5</v>
+      </c>
+      <c r="B437">
+        <v>3</v>
+      </c>
+      <c r="C437">
+        <v>4</v>
+      </c>
+      <c r="D437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>5</v>
+      </c>
+      <c r="B438">
+        <v>2</v>
+      </c>
+      <c r="C438">
+        <v>5</v>
+      </c>
+      <c r="D438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>5</v>
+      </c>
+      <c r="B439">
+        <v>3</v>
+      </c>
+      <c r="C439">
+        <v>6</v>
+      </c>
+      <c r="D439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>2</v>
+      </c>
+      <c r="B440">
+        <v>3</v>
+      </c>
+      <c r="C440">
+        <v>3</v>
+      </c>
+      <c r="D440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>3</v>
+      </c>
+      <c r="B441">
+        <v>3</v>
+      </c>
+      <c r="C441">
+        <v>3</v>
+      </c>
+      <c r="D441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>4</v>
+      </c>
+      <c r="B442">
+        <v>2</v>
+      </c>
+      <c r="C442">
+        <v>3</v>
+      </c>
+      <c r="D442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>4</v>
+      </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
+      <c r="C443">
+        <v>3</v>
+      </c>
+      <c r="D443">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>5</v>
+      </c>
+      <c r="B444">
+        <v>0</v>
+      </c>
+      <c r="C444">
+        <v>6</v>
+      </c>
+      <c r="D444">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>5</v>
+      </c>
+      <c r="B445">
+        <v>2</v>
+      </c>
+      <c r="C445">
+        <v>6</v>
+      </c>
+      <c r="D445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>5</v>
+      </c>
+      <c r="B446">
+        <v>2</v>
+      </c>
+      <c r="C446">
+        <v>4</v>
+      </c>
+      <c r="D446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>4</v>
+      </c>
+      <c r="B447">
+        <v>1</v>
+      </c>
+      <c r="C447">
+        <v>4</v>
+      </c>
+      <c r="D447">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>6</v>
+      </c>
+      <c r="B448">
+        <v>2</v>
+      </c>
+      <c r="C448">
+        <v>7</v>
+      </c>
+      <c r="D448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>3</v>
+      </c>
+      <c r="B449">
+        <v>2</v>
+      </c>
+      <c r="C449">
+        <v>3</v>
+      </c>
+      <c r="D449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>5</v>
+      </c>
+      <c r="B450">
+        <v>2</v>
+      </c>
+      <c r="C450">
+        <v>5</v>
+      </c>
+      <c r="D450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>6</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+      <c r="C451">
+        <v>4</v>
+      </c>
+      <c r="D451">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>4</v>
+      </c>
+      <c r="B452">
+        <v>0</v>
+      </c>
+      <c r="C452">
+        <v>3</v>
+      </c>
+      <c r="D452">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>2</v>
+      </c>
+      <c r="B453">
+        <v>2</v>
+      </c>
+      <c r="C453">
+        <v>4</v>
+      </c>
+      <c r="D453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>6</v>
+      </c>
+      <c r="B454">
+        <v>0</v>
+      </c>
+      <c r="C454">
+        <v>6</v>
+      </c>
+      <c r="D454">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>4</v>
+      </c>
+      <c r="B455">
+        <v>1</v>
+      </c>
+      <c r="C455">
+        <v>4</v>
+      </c>
+      <c r="D455">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>6</v>
+      </c>
+      <c r="B456">
+        <v>0</v>
+      </c>
+      <c r="C456">
+        <v>5</v>
+      </c>
+      <c r="D456">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>3</v>
+      </c>
+      <c r="B457">
+        <v>1</v>
+      </c>
+      <c r="C457">
+        <v>3</v>
+      </c>
+      <c r="D457">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>5</v>
+      </c>
+      <c r="B458">
+        <v>0</v>
+      </c>
+      <c r="C458">
+        <v>3</v>
+      </c>
+      <c r="D458">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>4</v>
+      </c>
+      <c r="B459">
+        <v>0</v>
+      </c>
+      <c r="C459">
+        <v>5</v>
+      </c>
+      <c r="D459">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>5</v>
+      </c>
+      <c r="B460">
+        <v>0</v>
+      </c>
+      <c r="C460">
+        <v>3</v>
+      </c>
+      <c r="D460">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>5</v>
+      </c>
+      <c r="B461">
+        <v>0</v>
+      </c>
+      <c r="C461">
+        <v>4</v>
+      </c>
+      <c r="D461">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>2</v>
+      </c>
+      <c r="B462">
+        <v>1</v>
+      </c>
+      <c r="C462">
+        <v>7</v>
+      </c>
+      <c r="D462">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>5</v>
+      </c>
+      <c r="B463">
+        <v>1</v>
+      </c>
+      <c r="C463">
+        <v>3</v>
+      </c>
+      <c r="D463">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>4</v>
+      </c>
+      <c r="B464">
+        <v>0</v>
+      </c>
+      <c r="C464">
+        <v>4</v>
+      </c>
+      <c r="D464">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>6</v>
+      </c>
+      <c r="B465">
+        <v>2</v>
+      </c>
+      <c r="C465">
+        <v>5</v>
+      </c>
+      <c r="D465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>3</v>
+      </c>
+      <c r="B466">
+        <v>2</v>
+      </c>
+      <c r="C466">
+        <v>5</v>
+      </c>
+      <c r="D466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>3</v>
+      </c>
+      <c r="B467">
+        <v>1</v>
+      </c>
+      <c r="C467">
+        <v>5</v>
+      </c>
+      <c r="D467">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>4</v>
+      </c>
+      <c r="B468">
+        <v>2</v>
+      </c>
+      <c r="C468">
+        <v>4</v>
+      </c>
+      <c r="D468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>3</v>
+      </c>
+      <c r="B469">
+        <v>0</v>
+      </c>
+      <c r="C469">
+        <v>3</v>
+      </c>
+      <c r="D469">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>5</v>
+      </c>
+      <c r="B470">
+        <v>2</v>
+      </c>
+      <c r="C470">
+        <v>5</v>
+      </c>
+      <c r="D470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>4</v>
+      </c>
+      <c r="B471">
+        <v>0</v>
+      </c>
+      <c r="C471">
+        <v>6</v>
+      </c>
+      <c r="D471">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>7</v>
+      </c>
+      <c r="B472">
+        <v>2</v>
+      </c>
+      <c r="C472">
+        <v>3</v>
+      </c>
+      <c r="D472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>5</v>
+      </c>
+      <c r="B473">
+        <v>2</v>
+      </c>
+      <c r="C473">
+        <v>5</v>
+      </c>
+      <c r="D473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>3</v>
+      </c>
+      <c r="B474">
+        <v>1</v>
+      </c>
+      <c r="C474">
+        <v>3</v>
+      </c>
+      <c r="D474">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>5</v>
+      </c>
+      <c r="B475">
+        <v>0</v>
+      </c>
+      <c r="C475">
+        <v>3</v>
+      </c>
+      <c r="D475">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>4</v>
+      </c>
+      <c r="B476">
+        <v>2</v>
+      </c>
+      <c r="C476">
+        <v>6</v>
+      </c>
+      <c r="D476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>6</v>
+      </c>
+      <c r="B477">
+        <v>2</v>
+      </c>
+      <c r="C477">
+        <v>6</v>
+      </c>
+      <c r="D477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>4</v>
+      </c>
+      <c r="B478">
+        <v>0</v>
+      </c>
+      <c r="C478">
+        <v>4</v>
+      </c>
+      <c r="D478">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>5</v>
+      </c>
+      <c r="B479">
+        <v>2</v>
+      </c>
+      <c r="C479">
+        <v>5</v>
+      </c>
+      <c r="D479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>2</v>
+      </c>
+      <c r="B480">
+        <v>0</v>
+      </c>
+      <c r="C480">
+        <v>2</v>
+      </c>
+      <c r="D480">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>5</v>
+      </c>
+      <c r="B481">
+        <v>0</v>
+      </c>
+      <c r="C481">
+        <v>5</v>
+      </c>
+      <c r="D481">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>5</v>
+      </c>
+      <c r="B482">
+        <v>2</v>
+      </c>
+      <c r="C482">
+        <v>5</v>
+      </c>
+      <c r="D482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>4</v>
+      </c>
+      <c r="B483">
+        <v>1</v>
+      </c>
+      <c r="C483">
+        <v>4</v>
+      </c>
+      <c r="D483">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>7</v>
+      </c>
+      <c r="B484">
+        <v>3</v>
+      </c>
+      <c r="C484">
+        <v>5</v>
+      </c>
+      <c r="D484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>3</v>
+      </c>
+      <c r="B485">
+        <v>0</v>
+      </c>
+      <c r="C485">
+        <v>6</v>
+      </c>
+      <c r="D485">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>5</v>
+      </c>
+      <c r="B486">
+        <v>1</v>
+      </c>
+      <c r="C486">
+        <v>5</v>
+      </c>
+      <c r="D486">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>4</v>
+      </c>
+      <c r="B487">
+        <v>1</v>
+      </c>
+      <c r="C487">
+        <v>3</v>
+      </c>
+      <c r="D487">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/slmatchups/SLMatchups.xlsx
+++ b/data/slmatchups/SLMatchups.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\OneDrive\Documents\apa-rankings\data\slmatchups\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/apa-rankings/data/slmatchups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D086602-DC98-450E-9CA0-A82DACDD51B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1164" documentId="13_ncr:1_{6D086602-DC98-450E-9CA0-A82DACDD51B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B199C31E-FFED-4DBD-9E18-7A65CA8571D9}"/>
   <bookViews>
-    <workbookView xWindow="15990" yWindow="360" windowWidth="15150" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21300" yWindow="1440" windowWidth="15150" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -354,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D487"/>
+  <dimension ref="A1:D776"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
-      <selection activeCell="A488" sqref="A488"/>
+    <sheetView tabSelected="1" topLeftCell="A757" workbookViewId="0">
+      <selection activeCell="H769" sqref="H769"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7183,6 +7193,4052 @@
         <v>2</v>
       </c>
     </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>5</v>
+      </c>
+      <c r="B488">
+        <v>2</v>
+      </c>
+      <c r="C488">
+        <v>2</v>
+      </c>
+      <c r="D488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>4</v>
+      </c>
+      <c r="B489">
+        <v>2</v>
+      </c>
+      <c r="C489">
+        <v>3</v>
+      </c>
+      <c r="D489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>4</v>
+      </c>
+      <c r="B490">
+        <v>3</v>
+      </c>
+      <c r="C490">
+        <v>3</v>
+      </c>
+      <c r="D490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>4</v>
+      </c>
+      <c r="B491">
+        <v>0</v>
+      </c>
+      <c r="C491">
+        <v>7</v>
+      </c>
+      <c r="D491">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>6</v>
+      </c>
+      <c r="B492">
+        <v>0</v>
+      </c>
+      <c r="C492">
+        <v>7</v>
+      </c>
+      <c r="D492">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>5</v>
+      </c>
+      <c r="B493">
+        <v>0</v>
+      </c>
+      <c r="C493">
+        <v>5</v>
+      </c>
+      <c r="D493">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>4</v>
+      </c>
+      <c r="B494">
+        <v>3</v>
+      </c>
+      <c r="C494">
+        <v>3</v>
+      </c>
+      <c r="D494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>5</v>
+      </c>
+      <c r="B495">
+        <v>2</v>
+      </c>
+      <c r="C495">
+        <v>4</v>
+      </c>
+      <c r="D495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>5</v>
+      </c>
+      <c r="B496">
+        <v>0</v>
+      </c>
+      <c r="C496">
+        <v>4</v>
+      </c>
+      <c r="D496">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>3</v>
+      </c>
+      <c r="B497">
+        <v>0</v>
+      </c>
+      <c r="C497">
+        <v>3</v>
+      </c>
+      <c r="D497">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>4</v>
+      </c>
+      <c r="B498">
+        <v>2</v>
+      </c>
+      <c r="C498">
+        <v>4</v>
+      </c>
+      <c r="D498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>5</v>
+      </c>
+      <c r="B499">
+        <v>0</v>
+      </c>
+      <c r="C499">
+        <v>5</v>
+      </c>
+      <c r="D499">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>6</v>
+      </c>
+      <c r="B500">
+        <v>2</v>
+      </c>
+      <c r="C500">
+        <v>6</v>
+      </c>
+      <c r="D500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>5</v>
+      </c>
+      <c r="B501">
+        <v>0</v>
+      </c>
+      <c r="C501">
+        <v>5</v>
+      </c>
+      <c r="D501">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>3</v>
+      </c>
+      <c r="B502">
+        <v>0</v>
+      </c>
+      <c r="C502">
+        <v>3</v>
+      </c>
+      <c r="D502">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>6</v>
+      </c>
+      <c r="B503">
+        <v>3</v>
+      </c>
+      <c r="C503">
+        <v>3</v>
+      </c>
+      <c r="D503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>3</v>
+      </c>
+      <c r="B504">
+        <v>3</v>
+      </c>
+      <c r="C504">
+        <v>2</v>
+      </c>
+      <c r="D504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>3</v>
+      </c>
+      <c r="B505">
+        <v>0</v>
+      </c>
+      <c r="C505">
+        <v>2</v>
+      </c>
+      <c r="D505">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>4</v>
+      </c>
+      <c r="B506">
+        <v>1</v>
+      </c>
+      <c r="C506">
+        <v>5</v>
+      </c>
+      <c r="D506">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>6</v>
+      </c>
+      <c r="B507">
+        <v>0</v>
+      </c>
+      <c r="C507">
+        <v>6</v>
+      </c>
+      <c r="D507">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>3</v>
+      </c>
+      <c r="B508">
+        <v>3</v>
+      </c>
+      <c r="C508">
+        <v>3</v>
+      </c>
+      <c r="D508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>7</v>
+      </c>
+      <c r="B509">
+        <v>2</v>
+      </c>
+      <c r="C509">
+        <v>7</v>
+      </c>
+      <c r="D509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>3</v>
+      </c>
+      <c r="B510">
+        <v>2</v>
+      </c>
+      <c r="C510">
+        <v>3</v>
+      </c>
+      <c r="D510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>5</v>
+      </c>
+      <c r="B511">
+        <v>1</v>
+      </c>
+      <c r="C511">
+        <v>4</v>
+      </c>
+      <c r="D511">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>3</v>
+      </c>
+      <c r="B512">
+        <v>1</v>
+      </c>
+      <c r="C512">
+        <v>3</v>
+      </c>
+      <c r="D512">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>5</v>
+      </c>
+      <c r="B513">
+        <v>0</v>
+      </c>
+      <c r="C513">
+        <v>5</v>
+      </c>
+      <c r="D513">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>3</v>
+      </c>
+      <c r="B514">
+        <v>2</v>
+      </c>
+      <c r="C514">
+        <v>3</v>
+      </c>
+      <c r="D514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>5</v>
+      </c>
+      <c r="B515">
+        <v>0</v>
+      </c>
+      <c r="C515">
+        <v>5</v>
+      </c>
+      <c r="D515">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>4</v>
+      </c>
+      <c r="B516">
+        <v>2</v>
+      </c>
+      <c r="C516">
+        <v>4</v>
+      </c>
+      <c r="D516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>3</v>
+      </c>
+      <c r="B517">
+        <v>1</v>
+      </c>
+      <c r="C517">
+        <v>4</v>
+      </c>
+      <c r="D517">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>4</v>
+      </c>
+      <c r="B518">
+        <v>2</v>
+      </c>
+      <c r="C518">
+        <v>4</v>
+      </c>
+      <c r="D518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>7</v>
+      </c>
+      <c r="B519">
+        <v>2</v>
+      </c>
+      <c r="C519">
+        <v>6</v>
+      </c>
+      <c r="D519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>5</v>
+      </c>
+      <c r="B520">
+        <v>0</v>
+      </c>
+      <c r="C520">
+        <v>6</v>
+      </c>
+      <c r="D520">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>3</v>
+      </c>
+      <c r="B521">
+        <v>3</v>
+      </c>
+      <c r="C521">
+        <v>3</v>
+      </c>
+      <c r="D521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>5</v>
+      </c>
+      <c r="B522">
+        <v>1</v>
+      </c>
+      <c r="C522">
+        <v>4</v>
+      </c>
+      <c r="D522">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>4</v>
+      </c>
+      <c r="B523">
+        <v>1</v>
+      </c>
+      <c r="C523">
+        <v>4</v>
+      </c>
+      <c r="D523">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>5</v>
+      </c>
+      <c r="B524">
+        <v>3</v>
+      </c>
+      <c r="C524">
+        <v>3</v>
+      </c>
+      <c r="D524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>6</v>
+      </c>
+      <c r="B525">
+        <v>0</v>
+      </c>
+      <c r="C525">
+        <v>5</v>
+      </c>
+      <c r="D525">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>3</v>
+      </c>
+      <c r="B526">
+        <v>3</v>
+      </c>
+      <c r="C526">
+        <v>4</v>
+      </c>
+      <c r="D526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>4</v>
+      </c>
+      <c r="B527">
+        <v>2</v>
+      </c>
+      <c r="C527">
+        <v>4</v>
+      </c>
+      <c r="D527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>2</v>
+      </c>
+      <c r="B528">
+        <v>0</v>
+      </c>
+      <c r="C528">
+        <v>3</v>
+      </c>
+      <c r="D528">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>6</v>
+      </c>
+      <c r="B529">
+        <v>0</v>
+      </c>
+      <c r="C529">
+        <v>5</v>
+      </c>
+      <c r="D529">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>4</v>
+      </c>
+      <c r="B530">
+        <v>3</v>
+      </c>
+      <c r="C530">
+        <v>4</v>
+      </c>
+      <c r="D530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>6</v>
+      </c>
+      <c r="B531">
+        <v>2</v>
+      </c>
+      <c r="C531">
+        <v>6</v>
+      </c>
+      <c r="D531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>3</v>
+      </c>
+      <c r="B532">
+        <v>2</v>
+      </c>
+      <c r="C532">
+        <v>3</v>
+      </c>
+      <c r="D532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>4</v>
+      </c>
+      <c r="B533">
+        <v>2</v>
+      </c>
+      <c r="C533">
+        <v>4</v>
+      </c>
+      <c r="D533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>3</v>
+      </c>
+      <c r="B534">
+        <v>1</v>
+      </c>
+      <c r="C534">
+        <v>4</v>
+      </c>
+      <c r="D534">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>7</v>
+      </c>
+      <c r="B535">
+        <v>1</v>
+      </c>
+      <c r="C535">
+        <v>5</v>
+      </c>
+      <c r="D535">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>3</v>
+      </c>
+      <c r="B536">
+        <v>3</v>
+      </c>
+      <c r="C536">
+        <v>2</v>
+      </c>
+      <c r="D536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>3</v>
+      </c>
+      <c r="B537">
+        <v>0</v>
+      </c>
+      <c r="C537">
+        <v>3</v>
+      </c>
+      <c r="D537">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>5</v>
+      </c>
+      <c r="B538">
+        <v>1</v>
+      </c>
+      <c r="C538">
+        <v>3</v>
+      </c>
+      <c r="D538">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>6</v>
+      </c>
+      <c r="B539">
+        <v>0</v>
+      </c>
+      <c r="C539">
+        <v>5</v>
+      </c>
+      <c r="D539">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>4</v>
+      </c>
+      <c r="B540">
+        <v>0</v>
+      </c>
+      <c r="C540">
+        <v>3</v>
+      </c>
+      <c r="D540">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>3</v>
+      </c>
+      <c r="B541">
+        <v>2</v>
+      </c>
+      <c r="C541">
+        <v>3</v>
+      </c>
+      <c r="D541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>5</v>
+      </c>
+      <c r="B542">
+        <v>0</v>
+      </c>
+      <c r="C542">
+        <v>6</v>
+      </c>
+      <c r="D542">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>4</v>
+      </c>
+      <c r="B543">
+        <v>2</v>
+      </c>
+      <c r="C543">
+        <v>4</v>
+      </c>
+      <c r="D543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>7</v>
+      </c>
+      <c r="B544">
+        <v>0</v>
+      </c>
+      <c r="C544">
+        <v>6</v>
+      </c>
+      <c r="D544">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>4</v>
+      </c>
+      <c r="B545">
+        <v>0</v>
+      </c>
+      <c r="C545">
+        <v>3</v>
+      </c>
+      <c r="D545">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>3</v>
+      </c>
+      <c r="B546">
+        <v>0</v>
+      </c>
+      <c r="C546">
+        <v>3</v>
+      </c>
+      <c r="D546">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>3</v>
+      </c>
+      <c r="B547">
+        <v>3</v>
+      </c>
+      <c r="C547">
+        <v>4</v>
+      </c>
+      <c r="D547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>6</v>
+      </c>
+      <c r="B548">
+        <v>2</v>
+      </c>
+      <c r="C548">
+        <v>6</v>
+      </c>
+      <c r="D548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>5</v>
+      </c>
+      <c r="B549">
+        <v>0</v>
+      </c>
+      <c r="C549">
+        <v>7</v>
+      </c>
+      <c r="D549">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>5</v>
+      </c>
+      <c r="B550">
+        <v>3</v>
+      </c>
+      <c r="C550">
+        <v>3</v>
+      </c>
+      <c r="D550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>6</v>
+      </c>
+      <c r="B551">
+        <v>2</v>
+      </c>
+      <c r="C551">
+        <v>5</v>
+      </c>
+      <c r="D551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>4</v>
+      </c>
+      <c r="B552">
+        <v>3</v>
+      </c>
+      <c r="C552">
+        <v>4</v>
+      </c>
+      <c r="D552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>5</v>
+      </c>
+      <c r="B553">
+        <v>3</v>
+      </c>
+      <c r="C553">
+        <v>5</v>
+      </c>
+      <c r="D553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>4</v>
+      </c>
+      <c r="B554">
+        <v>2</v>
+      </c>
+      <c r="C554">
+        <v>5</v>
+      </c>
+      <c r="D554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>3</v>
+      </c>
+      <c r="B555">
+        <v>0</v>
+      </c>
+      <c r="C555">
+        <v>4</v>
+      </c>
+      <c r="D555">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>4</v>
+      </c>
+      <c r="B556">
+        <v>1</v>
+      </c>
+      <c r="C556">
+        <v>4</v>
+      </c>
+      <c r="D556">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>5</v>
+      </c>
+      <c r="B557">
+        <v>1</v>
+      </c>
+      <c r="C557">
+        <v>5</v>
+      </c>
+      <c r="D557">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>5</v>
+      </c>
+      <c r="B558">
+        <v>2</v>
+      </c>
+      <c r="C558">
+        <v>6</v>
+      </c>
+      <c r="D558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>4</v>
+      </c>
+      <c r="B559">
+        <v>2</v>
+      </c>
+      <c r="C559">
+        <v>4</v>
+      </c>
+      <c r="D559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>4</v>
+      </c>
+      <c r="B560">
+        <v>0</v>
+      </c>
+      <c r="C560">
+        <v>3</v>
+      </c>
+      <c r="D560">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>3</v>
+      </c>
+      <c r="B561">
+        <v>3</v>
+      </c>
+      <c r="C561">
+        <v>3</v>
+      </c>
+      <c r="D561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>6</v>
+      </c>
+      <c r="B562">
+        <v>0</v>
+      </c>
+      <c r="C562">
+        <v>5</v>
+      </c>
+      <c r="D562">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>3</v>
+      </c>
+      <c r="B563">
+        <v>2</v>
+      </c>
+      <c r="C563">
+        <v>3</v>
+      </c>
+      <c r="D563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>3</v>
+      </c>
+      <c r="B564">
+        <v>1</v>
+      </c>
+      <c r="C564">
+        <v>5</v>
+      </c>
+      <c r="D564">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>7</v>
+      </c>
+      <c r="B565">
+        <v>0</v>
+      </c>
+      <c r="C565">
+        <v>7</v>
+      </c>
+      <c r="D565">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>3</v>
+      </c>
+      <c r="B566">
+        <v>3</v>
+      </c>
+      <c r="C566">
+        <v>3</v>
+      </c>
+      <c r="D566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>7</v>
+      </c>
+      <c r="B567">
+        <v>2</v>
+      </c>
+      <c r="C567">
+        <v>5</v>
+      </c>
+      <c r="D567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>4</v>
+      </c>
+      <c r="B568">
+        <v>0</v>
+      </c>
+      <c r="C568">
+        <v>6</v>
+      </c>
+      <c r="D568">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>4</v>
+      </c>
+      <c r="B569">
+        <v>1</v>
+      </c>
+      <c r="C569">
+        <v>6</v>
+      </c>
+      <c r="D569">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>4</v>
+      </c>
+      <c r="B570">
+        <v>2</v>
+      </c>
+      <c r="C570">
+        <v>4</v>
+      </c>
+      <c r="D570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>5</v>
+      </c>
+      <c r="B571">
+        <v>1</v>
+      </c>
+      <c r="C571">
+        <v>5</v>
+      </c>
+      <c r="D571">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>4</v>
+      </c>
+      <c r="B572">
+        <v>1</v>
+      </c>
+      <c r="C572">
+        <v>3</v>
+      </c>
+      <c r="D572">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>6</v>
+      </c>
+      <c r="B573">
+        <v>1</v>
+      </c>
+      <c r="C573">
+        <v>6</v>
+      </c>
+      <c r="D573">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>4</v>
+      </c>
+      <c r="B574">
+        <v>1</v>
+      </c>
+      <c r="C574">
+        <v>5</v>
+      </c>
+      <c r="D574">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>5</v>
+      </c>
+      <c r="B575">
+        <v>0</v>
+      </c>
+      <c r="C575">
+        <v>4</v>
+      </c>
+      <c r="D575">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>5</v>
+      </c>
+      <c r="B576">
+        <v>0</v>
+      </c>
+      <c r="C576">
+        <v>5</v>
+      </c>
+      <c r="D576">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>5</v>
+      </c>
+      <c r="B577">
+        <v>2</v>
+      </c>
+      <c r="C577">
+        <v>5</v>
+      </c>
+      <c r="D577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>3</v>
+      </c>
+      <c r="B578">
+        <v>2</v>
+      </c>
+      <c r="C578">
+        <v>4</v>
+      </c>
+      <c r="D578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>2</v>
+      </c>
+      <c r="B579">
+        <v>2</v>
+      </c>
+      <c r="C579">
+        <v>4</v>
+      </c>
+      <c r="D579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>6</v>
+      </c>
+      <c r="B580">
+        <v>0</v>
+      </c>
+      <c r="C580">
+        <v>7</v>
+      </c>
+      <c r="D580">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>4</v>
+      </c>
+      <c r="B581">
+        <v>0</v>
+      </c>
+      <c r="C581">
+        <v>3</v>
+      </c>
+      <c r="D581">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>6</v>
+      </c>
+      <c r="B582">
+        <v>2</v>
+      </c>
+      <c r="C582">
+        <v>3</v>
+      </c>
+      <c r="D582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>5</v>
+      </c>
+      <c r="B583">
+        <v>2</v>
+      </c>
+      <c r="C583">
+        <v>4</v>
+      </c>
+      <c r="D583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>7</v>
+      </c>
+      <c r="B584">
+        <v>2</v>
+      </c>
+      <c r="C584">
+        <v>6</v>
+      </c>
+      <c r="D584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>3</v>
+      </c>
+      <c r="B585">
+        <v>0</v>
+      </c>
+      <c r="C585">
+        <v>4</v>
+      </c>
+      <c r="D585">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>3</v>
+      </c>
+      <c r="B586">
+        <v>2</v>
+      </c>
+      <c r="C586">
+        <v>3</v>
+      </c>
+      <c r="D586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>4</v>
+      </c>
+      <c r="B587">
+        <v>1</v>
+      </c>
+      <c r="C587">
+        <v>5</v>
+      </c>
+      <c r="D587">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>5</v>
+      </c>
+      <c r="B588">
+        <v>3</v>
+      </c>
+      <c r="C588">
+        <v>4</v>
+      </c>
+      <c r="D588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>3</v>
+      </c>
+      <c r="B589">
+        <v>0</v>
+      </c>
+      <c r="C589">
+        <v>2</v>
+      </c>
+      <c r="D589">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>6</v>
+      </c>
+      <c r="B590">
+        <v>2</v>
+      </c>
+      <c r="C590">
+        <v>5</v>
+      </c>
+      <c r="D590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>5</v>
+      </c>
+      <c r="B591">
+        <v>0</v>
+      </c>
+      <c r="C591">
+        <v>5</v>
+      </c>
+      <c r="D591">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>4</v>
+      </c>
+      <c r="B592">
+        <v>0</v>
+      </c>
+      <c r="C592">
+        <v>4</v>
+      </c>
+      <c r="D592">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>5</v>
+      </c>
+      <c r="B593">
+        <v>2</v>
+      </c>
+      <c r="C593">
+        <v>4</v>
+      </c>
+      <c r="D593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>3</v>
+      </c>
+      <c r="B594">
+        <v>1</v>
+      </c>
+      <c r="C594">
+        <v>3</v>
+      </c>
+      <c r="D594">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>4</v>
+      </c>
+      <c r="B595">
+        <v>0</v>
+      </c>
+      <c r="C595">
+        <v>4</v>
+      </c>
+      <c r="D595">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>5</v>
+      </c>
+      <c r="B596">
+        <v>3</v>
+      </c>
+      <c r="C596">
+        <v>3</v>
+      </c>
+      <c r="D596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>6</v>
+      </c>
+      <c r="B597">
+        <v>1</v>
+      </c>
+      <c r="C597">
+        <v>7</v>
+      </c>
+      <c r="D597">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>4</v>
+      </c>
+      <c r="B598">
+        <v>2</v>
+      </c>
+      <c r="C598">
+        <v>4</v>
+      </c>
+      <c r="D598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>4</v>
+      </c>
+      <c r="B599">
+        <v>2</v>
+      </c>
+      <c r="C599">
+        <v>3</v>
+      </c>
+      <c r="D599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>3</v>
+      </c>
+      <c r="B600">
+        <v>0</v>
+      </c>
+      <c r="C600">
+        <v>4</v>
+      </c>
+      <c r="D600">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>5</v>
+      </c>
+      <c r="B601">
+        <v>0</v>
+      </c>
+      <c r="C601">
+        <v>4</v>
+      </c>
+      <c r="D601">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>5</v>
+      </c>
+      <c r="B602">
+        <v>0</v>
+      </c>
+      <c r="C602">
+        <v>5</v>
+      </c>
+      <c r="D602">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>6</v>
+      </c>
+      <c r="B603">
+        <v>0</v>
+      </c>
+      <c r="C603">
+        <v>5</v>
+      </c>
+      <c r="D603">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>4</v>
+      </c>
+      <c r="B604">
+        <v>0</v>
+      </c>
+      <c r="C604">
+        <v>7</v>
+      </c>
+      <c r="D604">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>5</v>
+      </c>
+      <c r="B605">
+        <v>3</v>
+      </c>
+      <c r="C605">
+        <v>3</v>
+      </c>
+      <c r="D605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>4</v>
+      </c>
+      <c r="B606">
+        <v>3</v>
+      </c>
+      <c r="C606">
+        <v>2</v>
+      </c>
+      <c r="D606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>5</v>
+      </c>
+      <c r="B607">
+        <v>2</v>
+      </c>
+      <c r="C607">
+        <v>4</v>
+      </c>
+      <c r="D607">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>5</v>
+      </c>
+      <c r="B608">
+        <v>2</v>
+      </c>
+      <c r="C608">
+        <v>5</v>
+      </c>
+      <c r="D608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>3</v>
+      </c>
+      <c r="B609">
+        <v>3</v>
+      </c>
+      <c r="C609">
+        <v>4</v>
+      </c>
+      <c r="D609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>3</v>
+      </c>
+      <c r="B610">
+        <v>2</v>
+      </c>
+      <c r="C610">
+        <v>5</v>
+      </c>
+      <c r="D610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>6</v>
+      </c>
+      <c r="B611">
+        <v>0</v>
+      </c>
+      <c r="C611">
+        <v>5</v>
+      </c>
+      <c r="D611">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>4</v>
+      </c>
+      <c r="B612">
+        <v>1</v>
+      </c>
+      <c r="C612">
+        <v>5</v>
+      </c>
+      <c r="D612">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>3</v>
+      </c>
+      <c r="B613">
+        <v>3</v>
+      </c>
+      <c r="C613">
+        <v>4</v>
+      </c>
+      <c r="D613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>3</v>
+      </c>
+      <c r="B614">
+        <v>1</v>
+      </c>
+      <c r="C614">
+        <v>3</v>
+      </c>
+      <c r="D614">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>4</v>
+      </c>
+      <c r="B615">
+        <v>2</v>
+      </c>
+      <c r="C615">
+        <v>5</v>
+      </c>
+      <c r="D615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>4</v>
+      </c>
+      <c r="B616">
+        <v>2</v>
+      </c>
+      <c r="C616">
+        <v>4</v>
+      </c>
+      <c r="D616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>5</v>
+      </c>
+      <c r="B617">
+        <v>3</v>
+      </c>
+      <c r="C617">
+        <v>4</v>
+      </c>
+      <c r="D617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A618">
+        <v>6</v>
+      </c>
+      <c r="B618">
+        <v>3</v>
+      </c>
+      <c r="C618">
+        <v>7</v>
+      </c>
+      <c r="D618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>2</v>
+      </c>
+      <c r="B619">
+        <v>0</v>
+      </c>
+      <c r="C619">
+        <v>3</v>
+      </c>
+      <c r="D619">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>6</v>
+      </c>
+      <c r="B620">
+        <v>1</v>
+      </c>
+      <c r="C620">
+        <v>5</v>
+      </c>
+      <c r="D620">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>5</v>
+      </c>
+      <c r="B621">
+        <v>2</v>
+      </c>
+      <c r="C621">
+        <v>5</v>
+      </c>
+      <c r="D621">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>5</v>
+      </c>
+      <c r="B622">
+        <v>1</v>
+      </c>
+      <c r="C622">
+        <v>5</v>
+      </c>
+      <c r="D622">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>3</v>
+      </c>
+      <c r="B623">
+        <v>0</v>
+      </c>
+      <c r="C623">
+        <v>4</v>
+      </c>
+      <c r="D623">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>3</v>
+      </c>
+      <c r="B624">
+        <v>0</v>
+      </c>
+      <c r="C624">
+        <v>4</v>
+      </c>
+      <c r="D624">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>7</v>
+      </c>
+      <c r="B625">
+        <v>3</v>
+      </c>
+      <c r="C625">
+        <v>5</v>
+      </c>
+      <c r="D625">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>5</v>
+      </c>
+      <c r="B626">
+        <v>2</v>
+      </c>
+      <c r="C626">
+        <v>5</v>
+      </c>
+      <c r="D626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>3</v>
+      </c>
+      <c r="B627">
+        <v>1</v>
+      </c>
+      <c r="C627">
+        <v>2</v>
+      </c>
+      <c r="D627">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>4</v>
+      </c>
+      <c r="B628">
+        <v>0</v>
+      </c>
+      <c r="C628">
+        <v>5</v>
+      </c>
+      <c r="D628">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>4</v>
+      </c>
+      <c r="B629">
+        <v>2</v>
+      </c>
+      <c r="C629">
+        <v>7</v>
+      </c>
+      <c r="D629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>4</v>
+      </c>
+      <c r="B630">
+        <v>2</v>
+      </c>
+      <c r="C630">
+        <v>3</v>
+      </c>
+      <c r="D630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>3</v>
+      </c>
+      <c r="B631">
+        <v>2</v>
+      </c>
+      <c r="C631">
+        <v>2</v>
+      </c>
+      <c r="D631">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>3</v>
+      </c>
+      <c r="B632">
+        <v>0</v>
+      </c>
+      <c r="C632">
+        <v>4</v>
+      </c>
+      <c r="D632">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>6</v>
+      </c>
+      <c r="B633">
+        <v>0</v>
+      </c>
+      <c r="C633">
+        <v>4</v>
+      </c>
+      <c r="D633">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>3</v>
+      </c>
+      <c r="B634">
+        <v>3</v>
+      </c>
+      <c r="C634">
+        <v>3</v>
+      </c>
+      <c r="D634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>5</v>
+      </c>
+      <c r="B635">
+        <v>2</v>
+      </c>
+      <c r="C635">
+        <v>5</v>
+      </c>
+      <c r="D635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>3</v>
+      </c>
+      <c r="B636">
+        <v>2</v>
+      </c>
+      <c r="C636">
+        <v>4</v>
+      </c>
+      <c r="D636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>6</v>
+      </c>
+      <c r="B637">
+        <v>3</v>
+      </c>
+      <c r="C637">
+        <v>4</v>
+      </c>
+      <c r="D637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>6</v>
+      </c>
+      <c r="B638">
+        <v>2</v>
+      </c>
+      <c r="C638">
+        <v>7</v>
+      </c>
+      <c r="D638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>5</v>
+      </c>
+      <c r="B639">
+        <v>0</v>
+      </c>
+      <c r="C639">
+        <v>4</v>
+      </c>
+      <c r="D639">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>3</v>
+      </c>
+      <c r="B640">
+        <v>0</v>
+      </c>
+      <c r="C640">
+        <v>3</v>
+      </c>
+      <c r="D640">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>5</v>
+      </c>
+      <c r="B641">
+        <v>2</v>
+      </c>
+      <c r="C641">
+        <v>6</v>
+      </c>
+      <c r="D641">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>3</v>
+      </c>
+      <c r="B642">
+        <v>2</v>
+      </c>
+      <c r="C642">
+        <v>3</v>
+      </c>
+      <c r="D642">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>3</v>
+      </c>
+      <c r="B643">
+        <v>1</v>
+      </c>
+      <c r="C643">
+        <v>5</v>
+      </c>
+      <c r="D643">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>3</v>
+      </c>
+      <c r="B644">
+        <v>3</v>
+      </c>
+      <c r="C644">
+        <v>2</v>
+      </c>
+      <c r="D644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>5</v>
+      </c>
+      <c r="B645">
+        <v>3</v>
+      </c>
+      <c r="C645">
+        <v>5</v>
+      </c>
+      <c r="D645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>4</v>
+      </c>
+      <c r="B646">
+        <v>0</v>
+      </c>
+      <c r="C646">
+        <v>7</v>
+      </c>
+      <c r="D646">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A647">
+        <v>5</v>
+      </c>
+      <c r="B647">
+        <v>3</v>
+      </c>
+      <c r="C647">
+        <v>3</v>
+      </c>
+      <c r="D647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>5</v>
+      </c>
+      <c r="B648">
+        <v>0</v>
+      </c>
+      <c r="C648">
+        <v>6</v>
+      </c>
+      <c r="D648">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>2</v>
+      </c>
+      <c r="B649">
+        <v>1</v>
+      </c>
+      <c r="C649">
+        <v>3</v>
+      </c>
+      <c r="D649">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>5</v>
+      </c>
+      <c r="B650">
+        <v>2</v>
+      </c>
+      <c r="C650">
+        <v>4</v>
+      </c>
+      <c r="D650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>3</v>
+      </c>
+      <c r="B651">
+        <v>1</v>
+      </c>
+      <c r="C651">
+        <v>3</v>
+      </c>
+      <c r="D651">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A652">
+        <v>5</v>
+      </c>
+      <c r="B652">
+        <v>0</v>
+      </c>
+      <c r="C652">
+        <v>5</v>
+      </c>
+      <c r="D652">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>3</v>
+      </c>
+      <c r="B653">
+        <v>3</v>
+      </c>
+      <c r="C653">
+        <v>3</v>
+      </c>
+      <c r="D653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A654">
+        <v>6</v>
+      </c>
+      <c r="B654">
+        <v>2</v>
+      </c>
+      <c r="C654">
+        <v>6</v>
+      </c>
+      <c r="D654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A655">
+        <v>4</v>
+      </c>
+      <c r="B655">
+        <v>1</v>
+      </c>
+      <c r="C655">
+        <v>5</v>
+      </c>
+      <c r="D655">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A656">
+        <v>3</v>
+      </c>
+      <c r="B656">
+        <v>3</v>
+      </c>
+      <c r="C656">
+        <v>3</v>
+      </c>
+      <c r="D656">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A657">
+        <v>4</v>
+      </c>
+      <c r="B657">
+        <v>2</v>
+      </c>
+      <c r="C657">
+        <v>5</v>
+      </c>
+      <c r="D657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>5</v>
+      </c>
+      <c r="B658">
+        <v>1</v>
+      </c>
+      <c r="C658">
+        <v>5</v>
+      </c>
+      <c r="D658">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A659">
+        <v>4</v>
+      </c>
+      <c r="B659">
+        <v>2</v>
+      </c>
+      <c r="C659">
+        <v>4</v>
+      </c>
+      <c r="D659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A660">
+        <v>7</v>
+      </c>
+      <c r="B660">
+        <v>0</v>
+      </c>
+      <c r="C660">
+        <v>5</v>
+      </c>
+      <c r="D660">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A661">
+        <v>3</v>
+      </c>
+      <c r="B661">
+        <v>2</v>
+      </c>
+      <c r="C661">
+        <v>4</v>
+      </c>
+      <c r="D661">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A662">
+        <v>2</v>
+      </c>
+      <c r="B662">
+        <v>2</v>
+      </c>
+      <c r="C662">
+        <v>4</v>
+      </c>
+      <c r="D662">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A663">
+        <v>3</v>
+      </c>
+      <c r="B663">
+        <v>3</v>
+      </c>
+      <c r="C663">
+        <v>5</v>
+      </c>
+      <c r="D663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A664">
+        <v>7</v>
+      </c>
+      <c r="B664">
+        <v>2</v>
+      </c>
+      <c r="C664">
+        <v>6</v>
+      </c>
+      <c r="D664">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A665">
+        <v>5</v>
+      </c>
+      <c r="B665">
+        <v>0</v>
+      </c>
+      <c r="C665">
+        <v>5</v>
+      </c>
+      <c r="D665">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>4</v>
+      </c>
+      <c r="B666">
+        <v>2</v>
+      </c>
+      <c r="C666">
+        <v>3</v>
+      </c>
+      <c r="D666">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>4</v>
+      </c>
+      <c r="B667">
+        <v>0</v>
+      </c>
+      <c r="C667">
+        <v>5</v>
+      </c>
+      <c r="D667">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A668">
+        <v>6</v>
+      </c>
+      <c r="B668">
+        <v>2</v>
+      </c>
+      <c r="C668">
+        <v>5</v>
+      </c>
+      <c r="D668">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>3</v>
+      </c>
+      <c r="B669">
+        <v>3</v>
+      </c>
+      <c r="C669">
+        <v>3</v>
+      </c>
+      <c r="D669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A670">
+        <v>4</v>
+      </c>
+      <c r="B670">
+        <v>2</v>
+      </c>
+      <c r="C670">
+        <v>5</v>
+      </c>
+      <c r="D670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>6</v>
+      </c>
+      <c r="B671">
+        <v>0</v>
+      </c>
+      <c r="C671">
+        <v>5</v>
+      </c>
+      <c r="D671">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>6</v>
+      </c>
+      <c r="B672">
+        <v>2</v>
+      </c>
+      <c r="C672">
+        <v>6</v>
+      </c>
+      <c r="D672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>4</v>
+      </c>
+      <c r="B673">
+        <v>0</v>
+      </c>
+      <c r="C673">
+        <v>4</v>
+      </c>
+      <c r="D673">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>4</v>
+      </c>
+      <c r="B674">
+        <v>1</v>
+      </c>
+      <c r="C674">
+        <v>3</v>
+      </c>
+      <c r="D674">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>5</v>
+      </c>
+      <c r="B675">
+        <v>1</v>
+      </c>
+      <c r="C675">
+        <v>5</v>
+      </c>
+      <c r="D675">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>3</v>
+      </c>
+      <c r="B676">
+        <v>1</v>
+      </c>
+      <c r="C676">
+        <v>3</v>
+      </c>
+      <c r="D676">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>5</v>
+      </c>
+      <c r="B677">
+        <v>0</v>
+      </c>
+      <c r="C677">
+        <v>3</v>
+      </c>
+      <c r="D677">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A678">
+        <v>2</v>
+      </c>
+      <c r="B678">
+        <v>2</v>
+      </c>
+      <c r="C678">
+        <v>3</v>
+      </c>
+      <c r="D678">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>4</v>
+      </c>
+      <c r="B679">
+        <v>1</v>
+      </c>
+      <c r="C679">
+        <v>3</v>
+      </c>
+      <c r="D679">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>5</v>
+      </c>
+      <c r="B680">
+        <v>2</v>
+      </c>
+      <c r="C680">
+        <v>4</v>
+      </c>
+      <c r="D680">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A681">
+        <v>7</v>
+      </c>
+      <c r="B681">
+        <v>0</v>
+      </c>
+      <c r="C681">
+        <v>7</v>
+      </c>
+      <c r="D681">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A682">
+        <v>7</v>
+      </c>
+      <c r="B682">
+        <v>0</v>
+      </c>
+      <c r="C682">
+        <v>5</v>
+      </c>
+      <c r="D682">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>2</v>
+      </c>
+      <c r="B683">
+        <v>1</v>
+      </c>
+      <c r="C683">
+        <v>4</v>
+      </c>
+      <c r="D683">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>7</v>
+      </c>
+      <c r="B684">
+        <v>1</v>
+      </c>
+      <c r="C684">
+        <v>6</v>
+      </c>
+      <c r="D684">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A685">
+        <v>5</v>
+      </c>
+      <c r="B685">
+        <v>2</v>
+      </c>
+      <c r="C685">
+        <v>5</v>
+      </c>
+      <c r="D685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>2</v>
+      </c>
+      <c r="B686">
+        <v>2</v>
+      </c>
+      <c r="C686">
+        <v>3</v>
+      </c>
+      <c r="D686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A687">
+        <v>5</v>
+      </c>
+      <c r="B687">
+        <v>0</v>
+      </c>
+      <c r="C687">
+        <v>4</v>
+      </c>
+      <c r="D687">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A688">
+        <v>4</v>
+      </c>
+      <c r="B688">
+        <v>3</v>
+      </c>
+      <c r="C688">
+        <v>3</v>
+      </c>
+      <c r="D688">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>5</v>
+      </c>
+      <c r="B689">
+        <v>1</v>
+      </c>
+      <c r="C689">
+        <v>7</v>
+      </c>
+      <c r="D689">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>5</v>
+      </c>
+      <c r="B690">
+        <v>1</v>
+      </c>
+      <c r="C690">
+        <v>5</v>
+      </c>
+      <c r="D690">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>4</v>
+      </c>
+      <c r="B691">
+        <v>0</v>
+      </c>
+      <c r="C691">
+        <v>4</v>
+      </c>
+      <c r="D691">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>3</v>
+      </c>
+      <c r="B692">
+        <v>1</v>
+      </c>
+      <c r="C692">
+        <v>4</v>
+      </c>
+      <c r="D692">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A693">
+        <v>6</v>
+      </c>
+      <c r="B693">
+        <v>0</v>
+      </c>
+      <c r="C693">
+        <v>7</v>
+      </c>
+      <c r="D693">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>4</v>
+      </c>
+      <c r="B694">
+        <v>3</v>
+      </c>
+      <c r="C694">
+        <v>2</v>
+      </c>
+      <c r="D694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>6</v>
+      </c>
+      <c r="B695">
+        <v>2</v>
+      </c>
+      <c r="C695">
+        <v>5</v>
+      </c>
+      <c r="D695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>3</v>
+      </c>
+      <c r="B696">
+        <v>0</v>
+      </c>
+      <c r="C696">
+        <v>5</v>
+      </c>
+      <c r="D696">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>2</v>
+      </c>
+      <c r="B697">
+        <v>0</v>
+      </c>
+      <c r="C697">
+        <v>3</v>
+      </c>
+      <c r="D697">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>4</v>
+      </c>
+      <c r="B698">
+        <v>0</v>
+      </c>
+      <c r="C698">
+        <v>2</v>
+      </c>
+      <c r="D698">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>5</v>
+      </c>
+      <c r="B699">
+        <v>2</v>
+      </c>
+      <c r="C699">
+        <v>3</v>
+      </c>
+      <c r="D699">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>5</v>
+      </c>
+      <c r="B700">
+        <v>2</v>
+      </c>
+      <c r="C700">
+        <v>6</v>
+      </c>
+      <c r="D700">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>5</v>
+      </c>
+      <c r="B701">
+        <v>2</v>
+      </c>
+      <c r="C701">
+        <v>3</v>
+      </c>
+      <c r="D701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>4</v>
+      </c>
+      <c r="B702">
+        <v>3</v>
+      </c>
+      <c r="C702">
+        <v>3</v>
+      </c>
+      <c r="D702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>4</v>
+      </c>
+      <c r="B703">
+        <v>0</v>
+      </c>
+      <c r="C703">
+        <v>4</v>
+      </c>
+      <c r="D703">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>3</v>
+      </c>
+      <c r="B704">
+        <v>2</v>
+      </c>
+      <c r="C704">
+        <v>3</v>
+      </c>
+      <c r="D704">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>6</v>
+      </c>
+      <c r="B705">
+        <v>2</v>
+      </c>
+      <c r="C705">
+        <v>7</v>
+      </c>
+      <c r="D705">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>6</v>
+      </c>
+      <c r="B706">
+        <v>2</v>
+      </c>
+      <c r="C706">
+        <v>5</v>
+      </c>
+      <c r="D706">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>3</v>
+      </c>
+      <c r="B707">
+        <v>0</v>
+      </c>
+      <c r="C707">
+        <v>5</v>
+      </c>
+      <c r="D707">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>3</v>
+      </c>
+      <c r="B708">
+        <v>0</v>
+      </c>
+      <c r="C708">
+        <v>3</v>
+      </c>
+      <c r="D708">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>4</v>
+      </c>
+      <c r="B709">
+        <v>2</v>
+      </c>
+      <c r="C709">
+        <v>3</v>
+      </c>
+      <c r="D709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>6</v>
+      </c>
+      <c r="B710">
+        <v>2</v>
+      </c>
+      <c r="C710">
+        <v>6</v>
+      </c>
+      <c r="D710">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>5</v>
+      </c>
+      <c r="B711">
+        <v>0</v>
+      </c>
+      <c r="C711">
+        <v>5</v>
+      </c>
+      <c r="D711">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>5</v>
+      </c>
+      <c r="B712">
+        <v>2</v>
+      </c>
+      <c r="C712">
+        <v>5</v>
+      </c>
+      <c r="D712">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>3</v>
+      </c>
+      <c r="B713">
+        <v>2</v>
+      </c>
+      <c r="C713">
+        <v>3</v>
+      </c>
+      <c r="D713">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>4</v>
+      </c>
+      <c r="B714">
+        <v>3</v>
+      </c>
+      <c r="C714">
+        <v>5</v>
+      </c>
+      <c r="D714">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>4</v>
+      </c>
+      <c r="B715">
+        <v>3</v>
+      </c>
+      <c r="C715">
+        <v>5</v>
+      </c>
+      <c r="D715">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>7</v>
+      </c>
+      <c r="B716">
+        <v>0</v>
+      </c>
+      <c r="C716">
+        <v>4</v>
+      </c>
+      <c r="D716">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>3</v>
+      </c>
+      <c r="B717">
+        <v>0</v>
+      </c>
+      <c r="C717">
+        <v>5</v>
+      </c>
+      <c r="D717">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>3</v>
+      </c>
+      <c r="B718">
+        <v>1</v>
+      </c>
+      <c r="C718">
+        <v>3</v>
+      </c>
+      <c r="D718">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>2</v>
+      </c>
+      <c r="B719">
+        <v>2</v>
+      </c>
+      <c r="C719">
+        <v>4</v>
+      </c>
+      <c r="D719">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A720">
+        <v>5</v>
+      </c>
+      <c r="B720">
+        <v>0</v>
+      </c>
+      <c r="C720">
+        <v>6</v>
+      </c>
+      <c r="D720">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A721">
+        <v>4</v>
+      </c>
+      <c r="B721">
+        <v>3</v>
+      </c>
+      <c r="C721">
+        <v>3</v>
+      </c>
+      <c r="D721">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>3</v>
+      </c>
+      <c r="B722">
+        <v>1</v>
+      </c>
+      <c r="C722">
+        <v>4</v>
+      </c>
+      <c r="D722">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>3</v>
+      </c>
+      <c r="B723">
+        <v>2</v>
+      </c>
+      <c r="C723">
+        <v>3</v>
+      </c>
+      <c r="D723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>4</v>
+      </c>
+      <c r="B724">
+        <v>3</v>
+      </c>
+      <c r="C724">
+        <v>2</v>
+      </c>
+      <c r="D724">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>6</v>
+      </c>
+      <c r="B725">
+        <v>2</v>
+      </c>
+      <c r="C725">
+        <v>3</v>
+      </c>
+      <c r="D725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>5</v>
+      </c>
+      <c r="B726">
+        <v>2</v>
+      </c>
+      <c r="C726">
+        <v>5</v>
+      </c>
+      <c r="D726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>5</v>
+      </c>
+      <c r="B727">
+        <v>2</v>
+      </c>
+      <c r="C727">
+        <v>4</v>
+      </c>
+      <c r="D727">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>5</v>
+      </c>
+      <c r="B728">
+        <v>3</v>
+      </c>
+      <c r="C728">
+        <v>4</v>
+      </c>
+      <c r="D728">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>4</v>
+      </c>
+      <c r="B729">
+        <v>3</v>
+      </c>
+      <c r="C729">
+        <v>4</v>
+      </c>
+      <c r="D729">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>4</v>
+      </c>
+      <c r="B730">
+        <v>0</v>
+      </c>
+      <c r="C730">
+        <v>3</v>
+      </c>
+      <c r="D730">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A731">
+        <v>2</v>
+      </c>
+      <c r="B731">
+        <v>0</v>
+      </c>
+      <c r="C731">
+        <v>6</v>
+      </c>
+      <c r="D731">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>4</v>
+      </c>
+      <c r="B732">
+        <v>2</v>
+      </c>
+      <c r="C732">
+        <v>4</v>
+      </c>
+      <c r="D732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>2</v>
+      </c>
+      <c r="B733">
+        <v>1</v>
+      </c>
+      <c r="C733">
+        <v>3</v>
+      </c>
+      <c r="D733">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>3</v>
+      </c>
+      <c r="B734">
+        <v>1</v>
+      </c>
+      <c r="C734">
+        <v>7</v>
+      </c>
+      <c r="D734">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>3</v>
+      </c>
+      <c r="B735">
+        <v>1</v>
+      </c>
+      <c r="C735">
+        <v>4</v>
+      </c>
+      <c r="D735">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>5</v>
+      </c>
+      <c r="B736">
+        <v>3</v>
+      </c>
+      <c r="C736">
+        <v>5</v>
+      </c>
+      <c r="D736">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>5</v>
+      </c>
+      <c r="B737">
+        <v>1</v>
+      </c>
+      <c r="C737">
+        <v>5</v>
+      </c>
+      <c r="D737">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>4</v>
+      </c>
+      <c r="B738">
+        <v>2</v>
+      </c>
+      <c r="C738">
+        <v>3</v>
+      </c>
+      <c r="D738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>5</v>
+      </c>
+      <c r="B739">
+        <v>1</v>
+      </c>
+      <c r="C739">
+        <v>6</v>
+      </c>
+      <c r="D739">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A740">
+        <v>3</v>
+      </c>
+      <c r="B740">
+        <v>3</v>
+      </c>
+      <c r="C740">
+        <v>3</v>
+      </c>
+      <c r="D740">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A741">
+        <v>3</v>
+      </c>
+      <c r="B741">
+        <v>3</v>
+      </c>
+      <c r="C741">
+        <v>3</v>
+      </c>
+      <c r="D741">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A742">
+        <v>7</v>
+      </c>
+      <c r="B742">
+        <v>2</v>
+      </c>
+      <c r="C742">
+        <v>7</v>
+      </c>
+      <c r="D742">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A743">
+        <v>5</v>
+      </c>
+      <c r="B743">
+        <v>2</v>
+      </c>
+      <c r="C743">
+        <v>5</v>
+      </c>
+      <c r="D743">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A744">
+        <v>3</v>
+      </c>
+      <c r="B744">
+        <v>3</v>
+      </c>
+      <c r="C744">
+        <v>4</v>
+      </c>
+      <c r="D744">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A745">
+        <v>3</v>
+      </c>
+      <c r="B745">
+        <v>1</v>
+      </c>
+      <c r="C745">
+        <v>3</v>
+      </c>
+      <c r="D745">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A746">
+        <v>5</v>
+      </c>
+      <c r="B746">
+        <v>2</v>
+      </c>
+      <c r="C746">
+        <v>7</v>
+      </c>
+      <c r="D746">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A747">
+        <v>5</v>
+      </c>
+      <c r="B747">
+        <v>1</v>
+      </c>
+      <c r="C747">
+        <v>2</v>
+      </c>
+      <c r="D747">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A748">
+        <v>3</v>
+      </c>
+      <c r="B748">
+        <v>2</v>
+      </c>
+      <c r="C748">
+        <v>5</v>
+      </c>
+      <c r="D748">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A749">
+        <v>5</v>
+      </c>
+      <c r="B749">
+        <v>3</v>
+      </c>
+      <c r="C749">
+        <v>4</v>
+      </c>
+      <c r="D749">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A750">
+        <v>3</v>
+      </c>
+      <c r="B750">
+        <v>3</v>
+      </c>
+      <c r="C750">
+        <v>3</v>
+      </c>
+      <c r="D750">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A751">
+        <v>4</v>
+      </c>
+      <c r="B751">
+        <v>3</v>
+      </c>
+      <c r="C751">
+        <v>4</v>
+      </c>
+      <c r="D751">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A752">
+        <v>3</v>
+      </c>
+      <c r="B752">
+        <v>2</v>
+      </c>
+      <c r="C752">
+        <v>4</v>
+      </c>
+      <c r="D752">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A753">
+        <v>6</v>
+      </c>
+      <c r="B753">
+        <v>2</v>
+      </c>
+      <c r="C753">
+        <v>6</v>
+      </c>
+      <c r="D753">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A754">
+        <v>7</v>
+      </c>
+      <c r="B754">
+        <v>2</v>
+      </c>
+      <c r="C754">
+        <v>5</v>
+      </c>
+      <c r="D754">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A755">
+        <v>5</v>
+      </c>
+      <c r="B755">
+        <v>0</v>
+      </c>
+      <c r="C755">
+        <v>3</v>
+      </c>
+      <c r="D755">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A756">
+        <v>5</v>
+      </c>
+      <c r="B756">
+        <v>0</v>
+      </c>
+      <c r="C756">
+        <v>6</v>
+      </c>
+      <c r="D756">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A757">
+        <v>2</v>
+      </c>
+      <c r="B757">
+        <v>2</v>
+      </c>
+      <c r="C757">
+        <v>6</v>
+      </c>
+      <c r="D757">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A758">
+        <v>5</v>
+      </c>
+      <c r="B758">
+        <v>2</v>
+      </c>
+      <c r="C758">
+        <v>5</v>
+      </c>
+      <c r="D758">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A759">
+        <v>5</v>
+      </c>
+      <c r="B759">
+        <v>0</v>
+      </c>
+      <c r="C759">
+        <v>3</v>
+      </c>
+      <c r="D759">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A760">
+        <v>4</v>
+      </c>
+      <c r="B760">
+        <v>0</v>
+      </c>
+      <c r="C760">
+        <v>3</v>
+      </c>
+      <c r="D760">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A761">
+        <v>5</v>
+      </c>
+      <c r="B761">
+        <v>1</v>
+      </c>
+      <c r="C761">
+        <v>3</v>
+      </c>
+      <c r="D761">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A762">
+        <v>5</v>
+      </c>
+      <c r="B762">
+        <v>3</v>
+      </c>
+      <c r="C762">
+        <v>7</v>
+      </c>
+      <c r="D762">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A763">
+        <v>5</v>
+      </c>
+      <c r="B763">
+        <v>0</v>
+      </c>
+      <c r="C763">
+        <v>5</v>
+      </c>
+      <c r="D763">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A764">
+        <v>3</v>
+      </c>
+      <c r="B764">
+        <v>2</v>
+      </c>
+      <c r="C764">
+        <v>4</v>
+      </c>
+      <c r="D764">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A765">
+        <v>4</v>
+      </c>
+      <c r="B765">
+        <v>3</v>
+      </c>
+      <c r="C765">
+        <v>4</v>
+      </c>
+      <c r="D765">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A766">
+        <v>2</v>
+      </c>
+      <c r="B766">
+        <v>2</v>
+      </c>
+      <c r="C766">
+        <v>3</v>
+      </c>
+      <c r="D766">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A767">
+        <v>4</v>
+      </c>
+      <c r="B767">
+        <v>3</v>
+      </c>
+      <c r="C767">
+        <v>3</v>
+      </c>
+      <c r="D767">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A768">
+        <v>5</v>
+      </c>
+      <c r="B768">
+        <v>2</v>
+      </c>
+      <c r="C768">
+        <v>5</v>
+      </c>
+      <c r="D768">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A769">
+        <v>5</v>
+      </c>
+      <c r="B769">
+        <v>2</v>
+      </c>
+      <c r="C769">
+        <v>3</v>
+      </c>
+      <c r="D769">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A770">
+        <v>2</v>
+      </c>
+      <c r="B770">
+        <v>0</v>
+      </c>
+      <c r="C770">
+        <v>4</v>
+      </c>
+      <c r="D770">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A771">
+        <v>5</v>
+      </c>
+      <c r="B771">
+        <v>0</v>
+      </c>
+      <c r="C771">
+        <v>7</v>
+      </c>
+      <c r="D771">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A772">
+        <v>3</v>
+      </c>
+      <c r="B772">
+        <v>2</v>
+      </c>
+      <c r="C772">
+        <v>5</v>
+      </c>
+      <c r="D772">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A773">
+        <v>5</v>
+      </c>
+      <c r="B773">
+        <v>2</v>
+      </c>
+      <c r="C773">
+        <v>3</v>
+      </c>
+      <c r="D773">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A774">
+        <v>6</v>
+      </c>
+      <c r="B774">
+        <v>0</v>
+      </c>
+      <c r="C774">
+        <v>5</v>
+      </c>
+      <c r="D774">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A775">
+        <v>6</v>
+      </c>
+      <c r="B775">
+        <v>3</v>
+      </c>
+      <c r="C775">
+        <v>3</v>
+      </c>
+      <c r="D775">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A776">
+        <v>3</v>
+      </c>
+      <c r="B776">
+        <v>1</v>
+      </c>
+      <c r="C776">
+        <v>5</v>
+      </c>
+      <c r="D776">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/slmatchups/SLMatchups.xlsx
+++ b/data/slmatchups/SLMatchups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/apa-rankings/data/slmatchups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1164" documentId="13_ncr:1_{6D086602-DC98-450E-9CA0-A82DACDD51B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B199C31E-FFED-4DBD-9E18-7A65CA8571D9}"/>
+  <xr:revisionPtr revIDLastSave="1642" documentId="13_ncr:1_{6D086602-DC98-450E-9CA0-A82DACDD51B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{588AEE3E-53CA-4FE0-83A2-A7CDAEDF34FE}"/>
   <bookViews>
-    <workbookView xWindow="21300" yWindow="1440" windowWidth="15150" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21105" yWindow="405" windowWidth="15150" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D776"/>
+  <dimension ref="A1:D895"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A757" workbookViewId="0">
-      <selection activeCell="H769" sqref="H769"/>
+    <sheetView tabSelected="1" topLeftCell="A881" workbookViewId="0">
+      <selection activeCell="A896" sqref="A896"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11239,6 +11239,1672 @@
         <v>2</v>
       </c>
     </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A777">
+        <v>4</v>
+      </c>
+      <c r="B777">
+        <v>2</v>
+      </c>
+      <c r="C777">
+        <v>5</v>
+      </c>
+      <c r="D777">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A778">
+        <v>5</v>
+      </c>
+      <c r="B778">
+        <v>0</v>
+      </c>
+      <c r="C778">
+        <v>5</v>
+      </c>
+      <c r="D778">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>3</v>
+      </c>
+      <c r="B779">
+        <v>0</v>
+      </c>
+      <c r="C779">
+        <v>2</v>
+      </c>
+      <c r="D779">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A780">
+        <v>7</v>
+      </c>
+      <c r="B780">
+        <v>3</v>
+      </c>
+      <c r="C780">
+        <v>2</v>
+      </c>
+      <c r="D780">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A781">
+        <v>4</v>
+      </c>
+      <c r="B781">
+        <v>2</v>
+      </c>
+      <c r="C781">
+        <v>2</v>
+      </c>
+      <c r="D781">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A782">
+        <v>4</v>
+      </c>
+      <c r="B782">
+        <v>2</v>
+      </c>
+      <c r="C782">
+        <v>4</v>
+      </c>
+      <c r="D782">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A783">
+        <v>4</v>
+      </c>
+      <c r="B783">
+        <v>0</v>
+      </c>
+      <c r="C783">
+        <v>4</v>
+      </c>
+      <c r="D783">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A784">
+        <v>4</v>
+      </c>
+      <c r="B784">
+        <v>1</v>
+      </c>
+      <c r="C784">
+        <v>6</v>
+      </c>
+      <c r="D784">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A785">
+        <v>5</v>
+      </c>
+      <c r="B785">
+        <v>1</v>
+      </c>
+      <c r="C785">
+        <v>5</v>
+      </c>
+      <c r="D785">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A786">
+        <v>5</v>
+      </c>
+      <c r="B786">
+        <v>0</v>
+      </c>
+      <c r="C786">
+        <v>3</v>
+      </c>
+      <c r="D786">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A787">
+        <v>5</v>
+      </c>
+      <c r="B787">
+        <v>0</v>
+      </c>
+      <c r="C787">
+        <v>6</v>
+      </c>
+      <c r="D787">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A788">
+        <v>2</v>
+      </c>
+      <c r="B788">
+        <v>1</v>
+      </c>
+      <c r="C788">
+        <v>2</v>
+      </c>
+      <c r="D788">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A789">
+        <v>5</v>
+      </c>
+      <c r="B789">
+        <v>2</v>
+      </c>
+      <c r="C789">
+        <v>6</v>
+      </c>
+      <c r="D789">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A790">
+        <v>4</v>
+      </c>
+      <c r="B790">
+        <v>3</v>
+      </c>
+      <c r="C790">
+        <v>3</v>
+      </c>
+      <c r="D790">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A791">
+        <v>4</v>
+      </c>
+      <c r="B791">
+        <v>0</v>
+      </c>
+      <c r="C791">
+        <v>5</v>
+      </c>
+      <c r="D791">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A792">
+        <v>6</v>
+      </c>
+      <c r="B792">
+        <v>2</v>
+      </c>
+      <c r="C792">
+        <v>7</v>
+      </c>
+      <c r="D792">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A793">
+        <v>4</v>
+      </c>
+      <c r="B793">
+        <v>2</v>
+      </c>
+      <c r="C793">
+        <v>4</v>
+      </c>
+      <c r="D793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A794">
+        <v>5</v>
+      </c>
+      <c r="B794">
+        <v>3</v>
+      </c>
+      <c r="C794">
+        <v>4</v>
+      </c>
+      <c r="D794">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A795">
+        <v>3</v>
+      </c>
+      <c r="B795">
+        <v>1</v>
+      </c>
+      <c r="C795">
+        <v>3</v>
+      </c>
+      <c r="D795">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A796">
+        <v>5</v>
+      </c>
+      <c r="B796">
+        <v>0</v>
+      </c>
+      <c r="C796">
+        <v>5</v>
+      </c>
+      <c r="D796">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A797">
+        <v>7</v>
+      </c>
+      <c r="B797">
+        <v>3</v>
+      </c>
+      <c r="C797">
+        <v>5</v>
+      </c>
+      <c r="D797">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A798">
+        <v>3</v>
+      </c>
+      <c r="B798">
+        <v>2</v>
+      </c>
+      <c r="C798">
+        <v>4</v>
+      </c>
+      <c r="D798">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A799">
+        <v>3</v>
+      </c>
+      <c r="B799">
+        <v>2</v>
+      </c>
+      <c r="C799">
+        <v>2</v>
+      </c>
+      <c r="D799">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A800">
+        <v>4</v>
+      </c>
+      <c r="B800">
+        <v>2</v>
+      </c>
+      <c r="C800">
+        <v>3</v>
+      </c>
+      <c r="D800">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A801">
+        <v>5</v>
+      </c>
+      <c r="B801">
+        <v>2</v>
+      </c>
+      <c r="C801">
+        <v>5</v>
+      </c>
+      <c r="D801">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A802">
+        <v>2</v>
+      </c>
+      <c r="B802">
+        <v>2</v>
+      </c>
+      <c r="C802">
+        <v>4</v>
+      </c>
+      <c r="D802">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A803">
+        <v>2</v>
+      </c>
+      <c r="B803">
+        <v>2</v>
+      </c>
+      <c r="C803">
+        <v>3</v>
+      </c>
+      <c r="D803">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A804">
+        <v>2</v>
+      </c>
+      <c r="B804">
+        <v>0</v>
+      </c>
+      <c r="C804">
+        <v>4</v>
+      </c>
+      <c r="D804">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A805">
+        <v>3</v>
+      </c>
+      <c r="B805">
+        <v>2</v>
+      </c>
+      <c r="C805">
+        <v>5</v>
+      </c>
+      <c r="D805">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A806">
+        <v>5</v>
+      </c>
+      <c r="B806">
+        <v>2</v>
+      </c>
+      <c r="C806">
+        <v>5</v>
+      </c>
+      <c r="D806">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A807">
+        <v>6</v>
+      </c>
+      <c r="B807">
+        <v>2</v>
+      </c>
+      <c r="C807">
+        <v>6</v>
+      </c>
+      <c r="D807">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A808">
+        <v>3</v>
+      </c>
+      <c r="B808">
+        <v>3</v>
+      </c>
+      <c r="C808">
+        <v>3</v>
+      </c>
+      <c r="D808">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A809">
+        <v>6</v>
+      </c>
+      <c r="B809">
+        <v>1</v>
+      </c>
+      <c r="C809">
+        <v>6</v>
+      </c>
+      <c r="D809">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A810">
+        <v>4</v>
+      </c>
+      <c r="B810">
+        <v>0</v>
+      </c>
+      <c r="C810">
+        <v>4</v>
+      </c>
+      <c r="D810">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A811">
+        <v>2</v>
+      </c>
+      <c r="B811">
+        <v>3</v>
+      </c>
+      <c r="C811">
+        <v>3</v>
+      </c>
+      <c r="D811">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A812">
+        <v>4</v>
+      </c>
+      <c r="B812">
+        <v>2</v>
+      </c>
+      <c r="C812">
+        <v>4</v>
+      </c>
+      <c r="D812">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A813">
+        <v>4</v>
+      </c>
+      <c r="B813">
+        <v>2</v>
+      </c>
+      <c r="C813">
+        <v>6</v>
+      </c>
+      <c r="D813">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A814">
+        <v>4</v>
+      </c>
+      <c r="B814">
+        <v>0</v>
+      </c>
+      <c r="C814">
+        <v>4</v>
+      </c>
+      <c r="D814">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A815">
+        <v>5</v>
+      </c>
+      <c r="B815">
+        <v>0</v>
+      </c>
+      <c r="C815">
+        <v>3</v>
+      </c>
+      <c r="D815">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A816">
+        <v>5</v>
+      </c>
+      <c r="B816">
+        <v>2</v>
+      </c>
+      <c r="C816">
+        <v>5</v>
+      </c>
+      <c r="D816">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A817">
+        <v>4</v>
+      </c>
+      <c r="B817">
+        <v>2</v>
+      </c>
+      <c r="C817">
+        <v>2</v>
+      </c>
+      <c r="D817">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A818">
+        <v>4</v>
+      </c>
+      <c r="B818">
+        <v>2</v>
+      </c>
+      <c r="C818">
+        <v>3</v>
+      </c>
+      <c r="D818">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A819">
+        <v>6</v>
+      </c>
+      <c r="B819">
+        <v>0</v>
+      </c>
+      <c r="C819">
+        <v>7</v>
+      </c>
+      <c r="D819">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A820">
+        <v>6</v>
+      </c>
+      <c r="B820">
+        <v>3</v>
+      </c>
+      <c r="C820">
+        <v>3</v>
+      </c>
+      <c r="D820">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A821">
+        <v>3</v>
+      </c>
+      <c r="B821">
+        <v>0</v>
+      </c>
+      <c r="C821">
+        <v>5</v>
+      </c>
+      <c r="D821">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A822">
+        <v>4</v>
+      </c>
+      <c r="B822">
+        <v>1</v>
+      </c>
+      <c r="C822">
+        <v>2</v>
+      </c>
+      <c r="D822">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A823">
+        <v>2</v>
+      </c>
+      <c r="B823">
+        <v>1</v>
+      </c>
+      <c r="C823">
+        <v>2</v>
+      </c>
+      <c r="D823">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A824">
+        <v>4</v>
+      </c>
+      <c r="B824">
+        <v>0</v>
+      </c>
+      <c r="C824">
+        <v>5</v>
+      </c>
+      <c r="D824">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A825">
+        <v>3</v>
+      </c>
+      <c r="B825">
+        <v>3</v>
+      </c>
+      <c r="C825">
+        <v>2</v>
+      </c>
+      <c r="D825">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A826">
+        <v>5</v>
+      </c>
+      <c r="B826">
+        <v>2</v>
+      </c>
+      <c r="C826">
+        <v>6</v>
+      </c>
+      <c r="D826">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A827">
+        <v>5</v>
+      </c>
+      <c r="B827">
+        <v>2</v>
+      </c>
+      <c r="C827">
+        <v>5</v>
+      </c>
+      <c r="D827">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A828">
+        <v>4</v>
+      </c>
+      <c r="B828">
+        <v>3</v>
+      </c>
+      <c r="C828">
+        <v>3</v>
+      </c>
+      <c r="D828">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A829">
+        <v>6</v>
+      </c>
+      <c r="B829">
+        <v>2</v>
+      </c>
+      <c r="C829">
+        <v>6</v>
+      </c>
+      <c r="D829">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A830">
+        <v>2</v>
+      </c>
+      <c r="B830">
+        <v>2</v>
+      </c>
+      <c r="C830">
+        <v>4</v>
+      </c>
+      <c r="D830">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A831">
+        <v>5</v>
+      </c>
+      <c r="B831">
+        <v>2</v>
+      </c>
+      <c r="C831">
+        <v>5</v>
+      </c>
+      <c r="D831">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A832">
+        <v>4</v>
+      </c>
+      <c r="B832">
+        <v>2</v>
+      </c>
+      <c r="C832">
+        <v>5</v>
+      </c>
+      <c r="D832">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A833">
+        <v>3</v>
+      </c>
+      <c r="B833">
+        <v>2</v>
+      </c>
+      <c r="C833">
+        <v>2</v>
+      </c>
+      <c r="D833">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A834">
+        <v>7</v>
+      </c>
+      <c r="B834">
+        <v>0</v>
+      </c>
+      <c r="C834">
+        <v>6</v>
+      </c>
+      <c r="D834">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A835">
+        <v>4</v>
+      </c>
+      <c r="B835">
+        <v>2</v>
+      </c>
+      <c r="C835">
+        <v>6</v>
+      </c>
+      <c r="D835">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A836">
+        <v>4</v>
+      </c>
+      <c r="B836">
+        <v>2</v>
+      </c>
+      <c r="C836">
+        <v>4</v>
+      </c>
+      <c r="D836">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A837">
+        <v>2</v>
+      </c>
+      <c r="B837">
+        <v>3</v>
+      </c>
+      <c r="C837">
+        <v>3</v>
+      </c>
+      <c r="D837">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A838">
+        <v>5</v>
+      </c>
+      <c r="B838">
+        <v>2</v>
+      </c>
+      <c r="C838">
+        <v>2</v>
+      </c>
+      <c r="D838">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A839">
+        <v>4</v>
+      </c>
+      <c r="B839">
+        <v>0</v>
+      </c>
+      <c r="C839">
+        <v>4</v>
+      </c>
+      <c r="D839">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A840">
+        <v>5</v>
+      </c>
+      <c r="B840">
+        <v>1</v>
+      </c>
+      <c r="C840">
+        <v>3</v>
+      </c>
+      <c r="D840">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A841">
+        <v>6</v>
+      </c>
+      <c r="B841">
+        <v>3</v>
+      </c>
+      <c r="C841">
+        <v>4</v>
+      </c>
+      <c r="D841">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A842">
+        <v>6</v>
+      </c>
+      <c r="B842">
+        <v>3</v>
+      </c>
+      <c r="C842">
+        <v>2</v>
+      </c>
+      <c r="D842">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A843">
+        <v>2</v>
+      </c>
+      <c r="B843">
+        <v>1</v>
+      </c>
+      <c r="C843">
+        <v>4</v>
+      </c>
+      <c r="D843">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A844">
+        <v>3</v>
+      </c>
+      <c r="B844">
+        <v>0</v>
+      </c>
+      <c r="C844">
+        <v>3</v>
+      </c>
+      <c r="D844">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A845">
+        <v>5</v>
+      </c>
+      <c r="B845">
+        <v>3</v>
+      </c>
+      <c r="C845">
+        <v>4</v>
+      </c>
+      <c r="D845">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A846">
+        <v>2</v>
+      </c>
+      <c r="B846">
+        <v>3</v>
+      </c>
+      <c r="C846">
+        <v>5</v>
+      </c>
+      <c r="D846">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A847">
+        <v>4</v>
+      </c>
+      <c r="B847">
+        <v>1</v>
+      </c>
+      <c r="C847">
+        <v>6</v>
+      </c>
+      <c r="D847">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A848">
+        <v>5</v>
+      </c>
+      <c r="B848">
+        <v>2</v>
+      </c>
+      <c r="C848">
+        <v>5</v>
+      </c>
+      <c r="D848">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A849">
+        <v>6</v>
+      </c>
+      <c r="B849">
+        <v>2</v>
+      </c>
+      <c r="C849">
+        <v>4</v>
+      </c>
+      <c r="D849">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A850">
+        <v>4</v>
+      </c>
+      <c r="B850">
+        <v>2</v>
+      </c>
+      <c r="C850">
+        <v>5</v>
+      </c>
+      <c r="D850">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A851">
+        <v>3</v>
+      </c>
+      <c r="B851">
+        <v>0</v>
+      </c>
+      <c r="C851">
+        <v>3</v>
+      </c>
+      <c r="D851">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A852">
+        <v>4</v>
+      </c>
+      <c r="B852">
+        <v>2</v>
+      </c>
+      <c r="C852">
+        <v>2</v>
+      </c>
+      <c r="D852">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A853">
+        <v>5</v>
+      </c>
+      <c r="B853">
+        <v>0</v>
+      </c>
+      <c r="C853">
+        <v>6</v>
+      </c>
+      <c r="D853">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A854">
+        <v>5</v>
+      </c>
+      <c r="B854">
+        <v>0</v>
+      </c>
+      <c r="C854">
+        <v>5</v>
+      </c>
+      <c r="D854">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A855">
+        <v>5</v>
+      </c>
+      <c r="B855">
+        <v>0</v>
+      </c>
+      <c r="C855">
+        <v>3</v>
+      </c>
+      <c r="D855">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A856">
+        <v>4</v>
+      </c>
+      <c r="B856">
+        <v>1</v>
+      </c>
+      <c r="C856">
+        <v>5</v>
+      </c>
+      <c r="D856">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A857">
+        <v>4</v>
+      </c>
+      <c r="B857">
+        <v>2</v>
+      </c>
+      <c r="C857">
+        <v>5</v>
+      </c>
+      <c r="D857">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A858">
+        <v>3</v>
+      </c>
+      <c r="B858">
+        <v>2</v>
+      </c>
+      <c r="C858">
+        <v>4</v>
+      </c>
+      <c r="D858">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A859">
+        <v>4</v>
+      </c>
+      <c r="B859">
+        <v>0</v>
+      </c>
+      <c r="C859">
+        <v>6</v>
+      </c>
+      <c r="D859">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A860">
+        <v>7</v>
+      </c>
+      <c r="B860">
+        <v>2</v>
+      </c>
+      <c r="C860">
+        <v>6</v>
+      </c>
+      <c r="D860">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A861">
+        <v>5</v>
+      </c>
+      <c r="B861">
+        <v>3</v>
+      </c>
+      <c r="C861">
+        <v>2</v>
+      </c>
+      <c r="D861">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A862">
+        <v>2</v>
+      </c>
+      <c r="B862">
+        <v>1</v>
+      </c>
+      <c r="C862">
+        <v>4</v>
+      </c>
+      <c r="D862">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A863">
+        <v>5</v>
+      </c>
+      <c r="B863">
+        <v>2</v>
+      </c>
+      <c r="C863">
+        <v>4</v>
+      </c>
+      <c r="D863">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A864">
+        <v>3</v>
+      </c>
+      <c r="B864">
+        <v>3</v>
+      </c>
+      <c r="C864">
+        <v>3</v>
+      </c>
+      <c r="D864">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A865">
+        <v>5</v>
+      </c>
+      <c r="B865">
+        <v>0</v>
+      </c>
+      <c r="C865">
+        <v>7</v>
+      </c>
+      <c r="D865">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A866">
+        <v>6</v>
+      </c>
+      <c r="B866">
+        <v>1</v>
+      </c>
+      <c r="C866">
+        <v>5</v>
+      </c>
+      <c r="D866">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A867">
+        <v>5</v>
+      </c>
+      <c r="B867">
+        <v>2</v>
+      </c>
+      <c r="C867">
+        <v>5</v>
+      </c>
+      <c r="D867">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A868">
+        <v>4</v>
+      </c>
+      <c r="B868">
+        <v>2</v>
+      </c>
+      <c r="C868">
+        <v>4</v>
+      </c>
+      <c r="D868">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A869">
+        <v>3</v>
+      </c>
+      <c r="B869">
+        <v>3</v>
+      </c>
+      <c r="C869">
+        <v>3</v>
+      </c>
+      <c r="D869">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A870">
+        <v>6</v>
+      </c>
+      <c r="B870">
+        <v>0</v>
+      </c>
+      <c r="C870">
+        <v>5</v>
+      </c>
+      <c r="D870">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A871">
+        <v>4</v>
+      </c>
+      <c r="B871">
+        <v>2</v>
+      </c>
+      <c r="C871">
+        <v>4</v>
+      </c>
+      <c r="D871">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A872">
+        <v>4</v>
+      </c>
+      <c r="B872">
+        <v>2</v>
+      </c>
+      <c r="C872">
+        <v>2</v>
+      </c>
+      <c r="D872">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A873">
+        <v>6</v>
+      </c>
+      <c r="B873">
+        <v>0</v>
+      </c>
+      <c r="C873">
+        <v>6</v>
+      </c>
+      <c r="D873">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A874">
+        <v>5</v>
+      </c>
+      <c r="B874">
+        <v>0</v>
+      </c>
+      <c r="C874">
+        <v>6</v>
+      </c>
+      <c r="D874">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A875">
+        <v>4</v>
+      </c>
+      <c r="B875">
+        <v>1</v>
+      </c>
+      <c r="C875">
+        <v>5</v>
+      </c>
+      <c r="D875">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A876">
+        <v>4</v>
+      </c>
+      <c r="B876">
+        <v>1</v>
+      </c>
+      <c r="C876">
+        <v>3</v>
+      </c>
+      <c r="D876">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A877">
+        <v>5</v>
+      </c>
+      <c r="B877">
+        <v>0</v>
+      </c>
+      <c r="C877">
+        <v>7</v>
+      </c>
+      <c r="D877">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A878">
+        <v>5</v>
+      </c>
+      <c r="B878">
+        <v>0</v>
+      </c>
+      <c r="C878">
+        <v>2</v>
+      </c>
+      <c r="D878">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A879">
+        <v>5</v>
+      </c>
+      <c r="B879">
+        <v>0</v>
+      </c>
+      <c r="C879">
+        <v>3</v>
+      </c>
+      <c r="D879">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A880">
+        <v>5</v>
+      </c>
+      <c r="B880">
+        <v>0</v>
+      </c>
+      <c r="C880">
+        <v>7</v>
+      </c>
+      <c r="D880">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A881">
+        <v>5</v>
+      </c>
+      <c r="B881">
+        <v>2</v>
+      </c>
+      <c r="C881">
+        <v>5</v>
+      </c>
+      <c r="D881">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A882">
+        <v>3</v>
+      </c>
+      <c r="B882">
+        <v>2</v>
+      </c>
+      <c r="C882">
+        <v>3</v>
+      </c>
+      <c r="D882">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A883">
+        <v>4</v>
+      </c>
+      <c r="B883">
+        <v>0</v>
+      </c>
+      <c r="C883">
+        <v>4</v>
+      </c>
+      <c r="D883">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A884">
+        <v>4</v>
+      </c>
+      <c r="B884">
+        <v>3</v>
+      </c>
+      <c r="C884">
+        <v>4</v>
+      </c>
+      <c r="D884">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A885">
+        <v>7</v>
+      </c>
+      <c r="B885">
+        <v>3</v>
+      </c>
+      <c r="C885">
+        <v>6</v>
+      </c>
+      <c r="D885">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A886">
+        <v>2</v>
+      </c>
+      <c r="B886">
+        <v>0</v>
+      </c>
+      <c r="C886">
+        <v>4</v>
+      </c>
+      <c r="D886">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A887">
+        <v>4</v>
+      </c>
+      <c r="B887">
+        <v>2</v>
+      </c>
+      <c r="C887">
+        <v>4</v>
+      </c>
+      <c r="D887">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A888">
+        <v>6</v>
+      </c>
+      <c r="B888">
+        <v>2</v>
+      </c>
+      <c r="C888">
+        <v>5</v>
+      </c>
+      <c r="D888">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A889">
+        <v>6</v>
+      </c>
+      <c r="B889">
+        <v>2</v>
+      </c>
+      <c r="C889">
+        <v>5</v>
+      </c>
+      <c r="D889">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A890">
+        <v>3</v>
+      </c>
+      <c r="B890">
+        <v>2</v>
+      </c>
+      <c r="C890">
+        <v>4</v>
+      </c>
+      <c r="D890">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A891">
+        <v>5</v>
+      </c>
+      <c r="B891">
+        <v>1</v>
+      </c>
+      <c r="C891">
+        <v>5</v>
+      </c>
+      <c r="D891">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A892">
+        <v>2</v>
+      </c>
+      <c r="B892">
+        <v>0</v>
+      </c>
+      <c r="C892">
+        <v>2</v>
+      </c>
+      <c r="D892">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A893">
+        <v>6</v>
+      </c>
+      <c r="B893">
+        <v>0</v>
+      </c>
+      <c r="C893">
+        <v>2</v>
+      </c>
+      <c r="D893">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A894">
+        <v>3</v>
+      </c>
+      <c r="B894">
+        <v>2</v>
+      </c>
+      <c r="C894">
+        <v>2</v>
+      </c>
+      <c r="D894">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A895">
+        <v>6</v>
+      </c>
+      <c r="B895">
+        <v>0</v>
+      </c>
+      <c r="C895">
+        <v>5</v>
+      </c>
+      <c r="D895">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/slmatchups/SLMatchups.xlsx
+++ b/data/slmatchups/SLMatchups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/apa-rankings/data/slmatchups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1642" documentId="13_ncr:1_{6D086602-DC98-450E-9CA0-A82DACDD51B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{588AEE3E-53CA-4FE0-83A2-A7CDAEDF34FE}"/>
+  <xr:revisionPtr revIDLastSave="1718" documentId="13_ncr:1_{6D086602-DC98-450E-9CA0-A82DACDD51B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A817112D-A3A5-4D53-93EE-56505BA74E04}"/>
   <bookViews>
     <workbookView xWindow="21105" yWindow="405" windowWidth="15150" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D895"/>
+  <dimension ref="A1:D914"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A881" workbookViewId="0">
-      <selection activeCell="A896" sqref="A896"/>
+      <selection activeCell="A915" sqref="A915"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12905,6 +12905,272 @@
         <v>2</v>
       </c>
     </row>
+    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A896">
+        <v>4</v>
+      </c>
+      <c r="B896">
+        <v>1</v>
+      </c>
+      <c r="C896">
+        <v>6</v>
+      </c>
+      <c r="D896">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A897">
+        <v>3</v>
+      </c>
+      <c r="B897">
+        <v>0</v>
+      </c>
+      <c r="C897">
+        <v>4</v>
+      </c>
+      <c r="D897">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A898">
+        <v>5</v>
+      </c>
+      <c r="B898">
+        <v>0</v>
+      </c>
+      <c r="C898">
+        <v>4</v>
+      </c>
+      <c r="D898">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A899">
+        <v>7</v>
+      </c>
+      <c r="B899">
+        <v>3</v>
+      </c>
+      <c r="C899">
+        <v>4</v>
+      </c>
+      <c r="D899">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A900">
+        <v>5</v>
+      </c>
+      <c r="B900">
+        <v>0</v>
+      </c>
+      <c r="C900">
+        <v>4</v>
+      </c>
+      <c r="D900">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A901">
+        <v>4</v>
+      </c>
+      <c r="B901">
+        <v>3</v>
+      </c>
+      <c r="C901">
+        <v>3</v>
+      </c>
+      <c r="D901">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A902">
+        <v>3</v>
+      </c>
+      <c r="B902">
+        <v>1</v>
+      </c>
+      <c r="C902">
+        <v>4</v>
+      </c>
+      <c r="D902">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A903">
+        <v>4</v>
+      </c>
+      <c r="B903">
+        <v>0</v>
+      </c>
+      <c r="C903">
+        <v>5</v>
+      </c>
+      <c r="D903">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A904">
+        <v>5</v>
+      </c>
+      <c r="B904">
+        <v>0</v>
+      </c>
+      <c r="C904">
+        <v>6</v>
+      </c>
+      <c r="D904">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A905">
+        <v>4</v>
+      </c>
+      <c r="B905">
+        <v>2</v>
+      </c>
+      <c r="C905">
+        <v>5</v>
+      </c>
+      <c r="D905">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A906">
+        <v>5</v>
+      </c>
+      <c r="B906">
+        <v>0</v>
+      </c>
+      <c r="C906">
+        <v>6</v>
+      </c>
+      <c r="D906">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A907">
+        <v>5</v>
+      </c>
+      <c r="B907">
+        <v>2</v>
+      </c>
+      <c r="C907">
+        <v>5</v>
+      </c>
+      <c r="D907">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A908">
+        <v>5</v>
+      </c>
+      <c r="B908">
+        <v>2</v>
+      </c>
+      <c r="C908">
+        <v>4</v>
+      </c>
+      <c r="D908">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A909">
+        <v>4</v>
+      </c>
+      <c r="B909">
+        <v>2</v>
+      </c>
+      <c r="C909">
+        <v>3</v>
+      </c>
+      <c r="D909">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A910">
+        <v>5</v>
+      </c>
+      <c r="B910">
+        <v>0</v>
+      </c>
+      <c r="C910">
+        <v>6</v>
+      </c>
+      <c r="D910">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A911">
+        <v>5</v>
+      </c>
+      <c r="B911">
+        <v>2</v>
+      </c>
+      <c r="C911">
+        <v>6</v>
+      </c>
+      <c r="D911">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A912">
+        <v>3</v>
+      </c>
+      <c r="B912">
+        <v>2</v>
+      </c>
+      <c r="C912">
+        <v>2</v>
+      </c>
+      <c r="D912">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A913">
+        <v>3</v>
+      </c>
+      <c r="B913">
+        <v>0</v>
+      </c>
+      <c r="C913">
+        <v>5</v>
+      </c>
+      <c r="D913">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A914">
+        <v>2</v>
+      </c>
+      <c r="B914">
+        <v>2</v>
+      </c>
+      <c r="C914">
+        <v>4</v>
+      </c>
+      <c r="D914">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
